--- a/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.011356526702786</v>
+      </c>
+      <c r="D2">
+        <v>1.032974624410639</v>
+      </c>
+      <c r="E2">
+        <v>1.019457381316186</v>
+      </c>
+      <c r="F2">
+        <v>1.037166288785566</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.054629100369709</v>
+      </c>
+      <c r="J2">
+        <v>1.033202791667989</v>
+      </c>
+      <c r="K2">
+        <v>1.043992917387643</v>
+      </c>
+      <c r="L2">
+        <v>1.030652139220827</v>
+      </c>
+      <c r="M2">
+        <v>1.048131027512531</v>
+      </c>
+      <c r="N2">
+        <v>1.034670058142174</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.021760784221414</v>
+      </c>
+      <c r="D3">
+        <v>1.041285579164255</v>
+      </c>
+      <c r="E3">
+        <v>1.029338405885572</v>
+      </c>
+      <c r="F3">
+        <v>1.046065573442959</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.058583043905353</v>
+      </c>
+      <c r="J3">
+        <v>1.0416753083328</v>
+      </c>
+      <c r="K3">
+        <v>1.051416110205506</v>
+      </c>
+      <c r="L3">
+        <v>1.039609169065317</v>
+      </c>
+      <c r="M3">
+        <v>1.056141105894686</v>
+      </c>
+      <c r="N3">
+        <v>1.043154606752461</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.028212627689654</v>
+      </c>
+      <c r="D4">
+        <v>1.046443074866228</v>
+      </c>
+      <c r="E4">
+        <v>1.035471267142341</v>
+      </c>
+      <c r="F4">
+        <v>1.051592657893432</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.06101890598389</v>
+      </c>
+      <c r="J4">
+        <v>1.046921184420716</v>
+      </c>
+      <c r="K4">
+        <v>1.056011512494258</v>
+      </c>
+      <c r="L4">
+        <v>1.045159634649176</v>
+      </c>
+      <c r="M4">
+        <v>1.061105863681581</v>
+      </c>
+      <c r="N4">
+        <v>1.048407932586132</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.030863081949095</v>
+      </c>
+      <c r="D5">
+        <v>1.048562522527326</v>
+      </c>
+      <c r="E5">
+        <v>1.037991898955276</v>
+      </c>
+      <c r="F5">
+        <v>1.053865056935578</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.062015638335339</v>
+      </c>
+      <c r="J5">
+        <v>1.049074215113553</v>
+      </c>
+      <c r="K5">
+        <v>1.057897336670535</v>
+      </c>
+      <c r="L5">
+        <v>1.047438775859614</v>
+      </c>
+      <c r="M5">
+        <v>1.063144690613721</v>
+      </c>
+      <c r="N5">
+        <v>1.050564020829509</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.031304615025234</v>
+      </c>
+      <c r="D6">
+        <v>1.048915633874633</v>
+      </c>
+      <c r="E6">
+        <v>1.038411874187625</v>
+      </c>
+      <c r="F6">
+        <v>1.054243713637143</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.062181447840863</v>
+      </c>
+      <c r="J6">
+        <v>1.049432763626386</v>
+      </c>
+      <c r="K6">
+        <v>1.05821137138089</v>
+      </c>
+      <c r="L6">
+        <v>1.047818390471191</v>
+      </c>
+      <c r="M6">
+        <v>1.063484287577181</v>
+      </c>
+      <c r="N6">
+        <v>1.050923078522355</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.028248279987984</v>
+      </c>
+      <c r="D7">
+        <v>1.046471581758188</v>
+      </c>
+      <c r="E7">
+        <v>1.035505168440457</v>
+      </c>
+      <c r="F7">
+        <v>1.051623217764975</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.061032329136884</v>
+      </c>
+      <c r="J7">
+        <v>1.046950153723939</v>
+      </c>
+      <c r="K7">
+        <v>1.056036887505154</v>
+      </c>
+      <c r="L7">
+        <v>1.045190296423263</v>
+      </c>
+      <c r="M7">
+        <v>1.061133291793864</v>
+      </c>
+      <c r="N7">
+        <v>1.048436943029087</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.014934119976401</v>
+      </c>
+      <c r="D8">
+        <v>1.035831503430618</v>
+      </c>
+      <c r="E8">
+        <v>1.022853824599184</v>
+      </c>
+      <c r="F8">
+        <v>1.040224445064377</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.055992056845765</v>
+      </c>
+      <c r="J8">
+        <v>1.036117809634589</v>
+      </c>
+      <c r="K8">
+        <v>1.046547039755022</v>
+      </c>
+      <c r="L8">
+        <v>1.033732875130782</v>
+      </c>
+      <c r="M8">
+        <v>1.050885781831151</v>
+      </c>
+      <c r="N8">
+        <v>1.037589215768644</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9890482417853957</v>
+      </c>
+      <c r="D9">
+        <v>1.015185965375589</v>
+      </c>
+      <c r="E9">
+        <v>0.9983079852827698</v>
+      </c>
+      <c r="F9">
+        <v>1.018144662688953</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.046063208476387</v>
+      </c>
+      <c r="J9">
+        <v>1.01499375195125</v>
+      </c>
+      <c r="K9">
+        <v>1.028037373610365</v>
+      </c>
+      <c r="L9">
+        <v>1.011428574025406</v>
+      </c>
+      <c r="M9">
+        <v>1.030950058320107</v>
+      </c>
+      <c r="N9">
+        <v>1.016435159500432</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9696867341313248</v>
+      </c>
+      <c r="D10">
+        <v>0.9997898042826685</v>
+      </c>
+      <c r="E10">
+        <v>0.9799939653897672</v>
+      </c>
+      <c r="F10">
+        <v>1.00170595397084</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.038555176479065</v>
+      </c>
+      <c r="J10">
+        <v>0.999156897880722</v>
+      </c>
+      <c r="K10">
+        <v>1.014162854915479</v>
+      </c>
+      <c r="L10">
+        <v>0.9947340805834922</v>
+      </c>
+      <c r="M10">
+        <v>1.016044475054562</v>
+      </c>
+      <c r="N10">
+        <v>1.000575815280611</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.960663440874686</v>
+      </c>
+      <c r="D11">
+        <v>0.9926304205363309</v>
+      </c>
+      <c r="E11">
+        <v>0.9714724488195651</v>
+      </c>
+      <c r="F11">
+        <v>0.9940684878474483</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.035038810759692</v>
+      </c>
+      <c r="J11">
+        <v>0.9917694418554619</v>
+      </c>
+      <c r="K11">
+        <v>1.007692667532978</v>
+      </c>
+      <c r="L11">
+        <v>0.9869531798276642</v>
+      </c>
+      <c r="M11">
+        <v>1.009103137462907</v>
+      </c>
+      <c r="N11">
+        <v>0.9931778682204415</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.957200156442053</v>
+      </c>
+      <c r="D12">
+        <v>0.9898854503854022</v>
+      </c>
+      <c r="E12">
+        <v>0.9682041013424406</v>
+      </c>
+      <c r="F12">
+        <v>0.9911412554843229</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.03368680577608</v>
+      </c>
+      <c r="J12">
+        <v>0.9889332165532154</v>
+      </c>
+      <c r="K12">
+        <v>1.005209029017293</v>
+      </c>
+      <c r="L12">
+        <v>0.9839669102190209</v>
+      </c>
+      <c r="M12">
+        <v>1.006440166065172</v>
+      </c>
+      <c r="N12">
+        <v>0.9903376151529465</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9579483852207483</v>
+      </c>
+      <c r="D13">
+        <v>0.9904783492952113</v>
+      </c>
+      <c r="E13">
+        <v>0.9689101035389374</v>
+      </c>
+      <c r="F13">
+        <v>0.991773474724349</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.033979003427598</v>
+      </c>
+      <c r="J13">
+        <v>0.9895460037102468</v>
+      </c>
+      <c r="K13">
+        <v>1.005745615560993</v>
+      </c>
+      <c r="L13">
+        <v>0.9846120698722474</v>
+      </c>
+      <c r="M13">
+        <v>1.007015427414658</v>
+      </c>
+      <c r="N13">
+        <v>0.9909512725380284</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.960379545309165</v>
+      </c>
+      <c r="D14">
+        <v>0.9924053450382759</v>
+      </c>
+      <c r="E14">
+        <v>0.9712044834783261</v>
+      </c>
+      <c r="F14">
+        <v>0.9938284464817427</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.034928029233118</v>
+      </c>
+      <c r="J14">
+        <v>0.9915369628919242</v>
+      </c>
+      <c r="K14">
+        <v>1.007489079837482</v>
+      </c>
+      <c r="L14">
+        <v>0.9867083816275365</v>
+      </c>
+      <c r="M14">
+        <v>1.00888481840624</v>
+      </c>
+      <c r="N14">
+        <v>0.9929450591101099</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9618621424752382</v>
+      </c>
+      <c r="D15">
+        <v>0.9935808854401372</v>
+      </c>
+      <c r="E15">
+        <v>0.9726039844895097</v>
+      </c>
+      <c r="F15">
+        <v>0.9950821938676123</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.035506473092961</v>
+      </c>
+      <c r="J15">
+        <v>0.9927510145011211</v>
+      </c>
+      <c r="K15">
+        <v>1.008552273533578</v>
+      </c>
+      <c r="L15">
+        <v>0.987986807592416</v>
+      </c>
+      <c r="M15">
+        <v>1.010025005467524</v>
+      </c>
+      <c r="N15">
+        <v>0.9941608348118456</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9702708600259893</v>
+      </c>
+      <c r="D16">
+        <v>1.000253635533086</v>
+      </c>
+      <c r="E16">
+        <v>0.9805459103062925</v>
+      </c>
+      <c r="F16">
+        <v>1.002200898147867</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.038782474295769</v>
+      </c>
+      <c r="J16">
+        <v>0.9996350055313621</v>
+      </c>
+      <c r="K16">
+        <v>1.014581647737471</v>
+      </c>
+      <c r="L16">
+        <v>0.9952377878694701</v>
+      </c>
+      <c r="M16">
+        <v>1.016493966809612</v>
+      </c>
+      <c r="N16">
+        <v>1.001054601898955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.975364304854307</v>
+      </c>
+      <c r="D17">
+        <v>1.004299953344275</v>
+      </c>
+      <c r="E17">
+        <v>0.9853602834112323</v>
+      </c>
+      <c r="F17">
+        <v>1.006519384324744</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.040762561564867</v>
+      </c>
+      <c r="J17">
+        <v>1.003803261093589</v>
+      </c>
+      <c r="K17">
+        <v>1.018233006530445</v>
+      </c>
+      <c r="L17">
+        <v>0.999629963099208</v>
+      </c>
+      <c r="M17">
+        <v>1.020414062616074</v>
+      </c>
+      <c r="N17">
+        <v>1.005228776862185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9782747274019143</v>
+      </c>
+      <c r="D18">
+        <v>1.006613469350518</v>
+      </c>
+      <c r="E18">
+        <v>0.9881124757669729</v>
+      </c>
+      <c r="F18">
+        <v>1.008989132876835</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.041892381687327</v>
+      </c>
+      <c r="J18">
+        <v>1.006184381736798</v>
+      </c>
+      <c r="K18">
+        <v>1.020319013880317</v>
+      </c>
+      <c r="L18">
+        <v>1.00213960754454</v>
+      </c>
+      <c r="M18">
+        <v>1.022654485422181</v>
+      </c>
+      <c r="N18">
+        <v>1.007613278969826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.979257259355593</v>
+      </c>
+      <c r="D19">
+        <v>1.007394719598188</v>
+      </c>
+      <c r="E19">
+        <v>0.9890417919779024</v>
+      </c>
+      <c r="F19">
+        <v>1.009823245296265</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.042273519014525</v>
+      </c>
+      <c r="J19">
+        <v>1.006988111392957</v>
+      </c>
+      <c r="K19">
+        <v>1.021023154474208</v>
+      </c>
+      <c r="L19">
+        <v>1.002986822471256</v>
+      </c>
+      <c r="M19">
+        <v>1.023410898294113</v>
+      </c>
+      <c r="N19">
+        <v>1.008418150014285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.974824184716619</v>
+      </c>
+      <c r="D20">
+        <v>1.003870720682836</v>
+      </c>
+      <c r="E20">
+        <v>0.98484962620381</v>
+      </c>
+      <c r="F20">
+        <v>1.006061215490868</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.040552755394041</v>
+      </c>
+      <c r="J20">
+        <v>1.003361315785672</v>
+      </c>
+      <c r="K20">
+        <v>1.017845847894043</v>
+      </c>
+      <c r="L20">
+        <v>0.9991642127529942</v>
+      </c>
+      <c r="M20">
+        <v>1.019998316504137</v>
+      </c>
+      <c r="N20">
+        <v>1.00478620394124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9596668545481809</v>
+      </c>
+      <c r="D21">
+        <v>0.9918403647369159</v>
+      </c>
+      <c r="E21">
+        <v>0.9705318226576156</v>
+      </c>
+      <c r="F21">
+        <v>0.9932259158991575</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.034649886493177</v>
+      </c>
+      <c r="J21">
+        <v>0.9909533362486362</v>
+      </c>
+      <c r="K21">
+        <v>1.006977990586857</v>
+      </c>
+      <c r="L21">
+        <v>0.986093844377109</v>
+      </c>
+      <c r="M21">
+        <v>1.008336771998117</v>
+      </c>
+      <c r="N21">
+        <v>0.9923606036500459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9494802417210341</v>
+      </c>
+      <c r="D22">
+        <v>0.9837728201094843</v>
+      </c>
+      <c r="E22">
+        <v>0.9609234743255771</v>
+      </c>
+      <c r="F22">
+        <v>0.984624723292103</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.030668995547818</v>
+      </c>
+      <c r="J22">
+        <v>0.9826098695298729</v>
+      </c>
+      <c r="K22">
+        <v>0.9996727434260076</v>
+      </c>
+      <c r="L22">
+        <v>0.9773109317934261</v>
+      </c>
+      <c r="M22">
+        <v>1.000507047114812</v>
+      </c>
+      <c r="N22">
+        <v>0.9840052882515327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.954948844497895</v>
+      </c>
+      <c r="D23">
+        <v>0.9881019783307389</v>
+      </c>
+      <c r="E23">
+        <v>0.9660802144631173</v>
+      </c>
+      <c r="F23">
+        <v>0.9892396608005399</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.032807298916428</v>
+      </c>
+      <c r="J23">
+        <v>0.987089331335875</v>
+      </c>
+      <c r="K23">
+        <v>1.003594507237439</v>
+      </c>
+      <c r="L23">
+        <v>0.9820257648621185</v>
+      </c>
+      <c r="M23">
+        <v>1.004709506066837</v>
+      </c>
+      <c r="N23">
+        <v>0.9884911114071007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.050000000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.9750684275770842</v>
+      </c>
+      <c r="D24">
+        <v>1.004064815704607</v>
+      </c>
+      <c r="E24">
+        <v>0.9850805420766089</v>
+      </c>
+      <c r="F24">
+        <v>1.006268393257317</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.040647634995076</v>
+      </c>
+      <c r="J24">
+        <v>1.003561165912761</v>
+      </c>
+      <c r="K24">
+        <v>1.01802092268046</v>
+      </c>
+      <c r="L24">
+        <v>0.9993748257520488</v>
+      </c>
+      <c r="M24">
+        <v>1.020186315908774</v>
+      </c>
+      <c r="N24">
+        <v>1.004986337878432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9960711093568612</v>
+      </c>
+      <c r="D25">
+        <v>1.02078085245597</v>
+      </c>
+      <c r="E25">
+        <v>1.004960542556888</v>
+      </c>
+      <c r="F25">
+        <v>1.024123794763776</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.048771100324953</v>
+      </c>
+      <c r="J25">
+        <v>1.020731423659305</v>
+      </c>
+      <c r="K25">
+        <v>1.0330649154758</v>
+      </c>
+      <c r="L25">
+        <v>1.017482337478861</v>
+      </c>
+      <c r="M25">
+        <v>1.036358816230304</v>
+      </c>
+      <c r="N25">
+        <v>1.022180979360432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011356526702786</v>
+        <v>1.027402668530206</v>
       </c>
       <c r="D2">
-        <v>1.032974624410639</v>
+        <v>1.040039738370361</v>
       </c>
       <c r="E2">
-        <v>1.019457381316186</v>
+        <v>1.044159280294214</v>
       </c>
       <c r="F2">
-        <v>1.037166288785566</v>
+        <v>1.049093878656985</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054629100369709</v>
+        <v>1.054613649299775</v>
       </c>
       <c r="J2">
-        <v>1.033202791667989</v>
+        <v>1.048793560080789</v>
       </c>
       <c r="K2">
-        <v>1.043992917387643</v>
+        <v>1.050968076081894</v>
       </c>
       <c r="L2">
-        <v>1.030652139220827</v>
+        <v>1.055035867122916</v>
       </c>
       <c r="M2">
-        <v>1.048131027512531</v>
+        <v>1.059909141699132</v>
       </c>
       <c r="N2">
-        <v>1.034670058142174</v>
+        <v>1.019260463539518</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021760784221414</v>
+        <v>1.032978922791245</v>
       </c>
       <c r="D3">
-        <v>1.041285579164255</v>
+        <v>1.044316452147389</v>
       </c>
       <c r="E3">
-        <v>1.029338405885572</v>
+        <v>1.049416075853978</v>
       </c>
       <c r="F3">
-        <v>1.046065573442959</v>
+        <v>1.054637936044764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058583043905353</v>
+        <v>1.056614014215476</v>
       </c>
       <c r="J3">
-        <v>1.0416753083328</v>
+        <v>1.052609212626938</v>
       </c>
       <c r="K3">
-        <v>1.051416110205506</v>
+        <v>1.054412037865506</v>
       </c>
       <c r="L3">
-        <v>1.039609169065317</v>
+        <v>1.059453425757428</v>
       </c>
       <c r="M3">
-        <v>1.056141105894686</v>
+        <v>1.064616372962124</v>
       </c>
       <c r="N3">
-        <v>1.043154606752461</v>
+        <v>1.020600785338193</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028212627689654</v>
+        <v>1.036502705596112</v>
       </c>
       <c r="D4">
-        <v>1.046443074866228</v>
+        <v>1.047021457785593</v>
       </c>
       <c r="E4">
-        <v>1.035471267142341</v>
+        <v>1.052743239819859</v>
       </c>
       <c r="F4">
-        <v>1.051592657893432</v>
+        <v>1.058147577449886</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06101890598389</v>
+        <v>1.057868792710312</v>
       </c>
       <c r="J4">
-        <v>1.046921184420716</v>
+        <v>1.055016615683473</v>
       </c>
       <c r="K4">
-        <v>1.056011512494258</v>
+        <v>1.056583658771794</v>
       </c>
       <c r="L4">
-        <v>1.045159634649176</v>
+        <v>1.062244195448813</v>
       </c>
       <c r="M4">
-        <v>1.061105863681581</v>
+        <v>1.067591429254613</v>
       </c>
       <c r="N4">
-        <v>1.048407932586132</v>
+        <v>1.021445609295118</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030863081949095</v>
+        <v>1.037964754981645</v>
       </c>
       <c r="D5">
-        <v>1.048562522527326</v>
+        <v>1.04814431318488</v>
       </c>
       <c r="E5">
-        <v>1.037991898955276</v>
+        <v>1.054124932973098</v>
       </c>
       <c r="F5">
-        <v>1.053865056935578</v>
+        <v>1.059605214992632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062015638335339</v>
+        <v>1.05838714025173</v>
       </c>
       <c r="J5">
-        <v>1.049074215113553</v>
+        <v>1.056014516787354</v>
       </c>
       <c r="K5">
-        <v>1.057897336670535</v>
+        <v>1.05748350842003</v>
       </c>
       <c r="L5">
-        <v>1.047438775859614</v>
+        <v>1.063401879682667</v>
       </c>
       <c r="M5">
-        <v>1.063144690613721</v>
+        <v>1.068825872821749</v>
       </c>
       <c r="N5">
-        <v>1.050564020829509</v>
+        <v>1.021795590722721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031304615025234</v>
+        <v>1.038209128993318</v>
       </c>
       <c r="D6">
-        <v>1.048915633874633</v>
+        <v>1.04833202177198</v>
       </c>
       <c r="E6">
-        <v>1.038411874187625</v>
+        <v>1.054355946667323</v>
       </c>
       <c r="F6">
-        <v>1.054243713637143</v>
+        <v>1.059848936236454</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062181447840863</v>
+        <v>1.058473644717744</v>
       </c>
       <c r="J6">
-        <v>1.049432763626386</v>
+        <v>1.056181253736632</v>
       </c>
       <c r="K6">
-        <v>1.05821137138089</v>
+        <v>1.057633843241874</v>
       </c>
       <c r="L6">
-        <v>1.047818390471191</v>
+        <v>1.063595365930038</v>
       </c>
       <c r="M6">
-        <v>1.063484287577181</v>
+        <v>1.069032206493536</v>
       </c>
       <c r="N6">
-        <v>1.050923078522355</v>
+        <v>1.021854055629592</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028248279987984</v>
+        <v>1.036522316496111</v>
       </c>
       <c r="D7">
-        <v>1.046471581758188</v>
+        <v>1.047036516983011</v>
       </c>
       <c r="E7">
-        <v>1.035505168440457</v>
+        <v>1.052761768093965</v>
       </c>
       <c r="F7">
-        <v>1.051623217764975</v>
+        <v>1.058167123461437</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061032329136884</v>
+        <v>1.057875754487638</v>
       </c>
       <c r="J7">
-        <v>1.046950153723939</v>
+        <v>1.055030004638982</v>
       </c>
       <c r="K7">
-        <v>1.056036887505154</v>
+        <v>1.056595733426128</v>
       </c>
       <c r="L7">
-        <v>1.045190296423263</v>
+        <v>1.06225972477371</v>
       </c>
       <c r="M7">
-        <v>1.061133291793864</v>
+        <v>1.067607986999305</v>
       </c>
       <c r="N7">
-        <v>1.048436943029087</v>
+        <v>1.021450305881049</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014934119976401</v>
+        <v>1.029305207525867</v>
       </c>
       <c r="D8">
-        <v>1.035831503430618</v>
+        <v>1.041498342433149</v>
       </c>
       <c r="E8">
-        <v>1.022853824599184</v>
+        <v>1.045951695972667</v>
       </c>
       <c r="F8">
-        <v>1.040224445064377</v>
+        <v>1.050984107753317</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055992056845765</v>
+        <v>1.055298076684071</v>
       </c>
       <c r="J8">
-        <v>1.036117809634589</v>
+        <v>1.05009618312418</v>
       </c>
       <c r="K8">
-        <v>1.046547039755022</v>
+        <v>1.05214406835995</v>
       </c>
       <c r="L8">
-        <v>1.033732875130782</v>
+        <v>1.056543219917432</v>
       </c>
       <c r="M8">
-        <v>1.050885781831151</v>
+        <v>1.061515067733826</v>
       </c>
       <c r="N8">
-        <v>1.037589215768644</v>
+        <v>1.019718200743418</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9890482417853957</v>
+        <v>1.01589943383856</v>
       </c>
       <c r="D9">
-        <v>1.015185965375589</v>
+        <v>1.031233717190513</v>
       </c>
       <c r="E9">
-        <v>0.9983079852827698</v>
+        <v>1.033346027363977</v>
       </c>
       <c r="F9">
-        <v>1.018144662688953</v>
+        <v>1.037693054921358</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046063208476387</v>
+        <v>1.050437354124699</v>
       </c>
       <c r="J9">
-        <v>1.01499375195125</v>
+        <v>1.04090297007761</v>
       </c>
       <c r="K9">
-        <v>1.028037373610365</v>
+        <v>1.043839588585016</v>
       </c>
       <c r="L9">
-        <v>1.011428574025406</v>
+        <v>1.045920302091214</v>
       </c>
       <c r="M9">
-        <v>1.030950058320107</v>
+        <v>1.050202819521201</v>
       </c>
       <c r="N9">
-        <v>1.016435159500432</v>
+        <v>1.016484724896936</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9696867341313248</v>
+        <v>1.00643619246517</v>
       </c>
       <c r="D10">
-        <v>0.9997898042826685</v>
+        <v>1.024007677949324</v>
       </c>
       <c r="E10">
-        <v>0.9799939653897672</v>
+        <v>1.024480440018069</v>
       </c>
       <c r="F10">
-        <v>1.00170595397084</v>
+        <v>1.028348285431607</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038555176479065</v>
+        <v>1.046959518729544</v>
       </c>
       <c r="J10">
-        <v>0.999156897880722</v>
+        <v>1.034396757763378</v>
       </c>
       <c r="K10">
-        <v>1.014162854915479</v>
+        <v>1.03795658611353</v>
       </c>
       <c r="L10">
-        <v>0.9947340805834922</v>
+        <v>1.038421325986479</v>
       </c>
       <c r="M10">
-        <v>1.016044475054562</v>
+        <v>1.0422238959681</v>
       </c>
       <c r="N10">
-        <v>1.000575815280611</v>
+        <v>1.014193067830696</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.960663440874686</v>
+        <v>1.002197973180388</v>
       </c>
       <c r="D11">
-        <v>0.9926304205363309</v>
+        <v>1.020777230016553</v>
       </c>
       <c r="E11">
-        <v>0.9714724488195651</v>
+        <v>1.020518414794979</v>
       </c>
       <c r="F11">
-        <v>0.9940684878474483</v>
+        <v>1.024172668749213</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035038810759692</v>
+        <v>1.045391516386128</v>
       </c>
       <c r="J11">
-        <v>0.9917694418554619</v>
+        <v>1.031479598909085</v>
       </c>
       <c r="K11">
-        <v>1.007692667532978</v>
+        <v>1.035317674440938</v>
       </c>
       <c r="L11">
-        <v>0.9869531798276642</v>
+        <v>1.035063487016942</v>
       </c>
       <c r="M11">
-        <v>1.009103137462907</v>
+        <v>1.038652681373731</v>
       </c>
       <c r="N11">
-        <v>0.9931778682204415</v>
+        <v>1.013164986806312</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.957200156442053</v>
+        <v>1.000601104251706</v>
       </c>
       <c r="D12">
-        <v>0.9898854503854022</v>
+        <v>1.019561042621972</v>
       </c>
       <c r="E12">
-        <v>0.9682041013424406</v>
+        <v>1.019026958579654</v>
       </c>
       <c r="F12">
-        <v>0.9911412554843229</v>
+        <v>1.022600880858751</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03368680577608</v>
+        <v>1.044799221563336</v>
       </c>
       <c r="J12">
-        <v>0.9889332165532154</v>
+        <v>1.030380046035494</v>
       </c>
       <c r="K12">
-        <v>1.005209029017293</v>
+        <v>1.034322840217443</v>
       </c>
       <c r="L12">
-        <v>0.9839669102190209</v>
+        <v>1.033798490468284</v>
       </c>
       <c r="M12">
-        <v>1.006440166065172</v>
+        <v>1.037307525689533</v>
       </c>
       <c r="N12">
-        <v>0.9903376151529465</v>
+        <v>1.012777406051778</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9579483852207483</v>
+        <v>1.000944686366314</v>
       </c>
       <c r="D13">
-        <v>0.9904783492952113</v>
+        <v>1.019822671598562</v>
       </c>
       <c r="E13">
-        <v>0.9689101035389374</v>
+        <v>1.019347798053631</v>
       </c>
       <c r="F13">
-        <v>0.991773474724349</v>
+        <v>1.022938998066995</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033979003427598</v>
+        <v>1.044926726651101</v>
       </c>
       <c r="J13">
-        <v>0.9895460037102468</v>
+        <v>1.030616644111301</v>
       </c>
       <c r="K13">
-        <v>1.005745615560993</v>
+        <v>1.034536912225141</v>
       </c>
       <c r="L13">
-        <v>0.9846120698722474</v>
+        <v>1.034070658458282</v>
       </c>
       <c r="M13">
-        <v>1.007015427414658</v>
+        <v>1.037596930047622</v>
       </c>
       <c r="N13">
-        <v>0.9909512725380284</v>
+        <v>1.012860807264933</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.960379545309165</v>
+        <v>1.002066445720552</v>
       </c>
       <c r="D14">
-        <v>0.9924053450382759</v>
+        <v>1.020677037299172</v>
       </c>
       <c r="E14">
-        <v>0.9712044834783261</v>
+        <v>1.020395541943638</v>
       </c>
       <c r="F14">
-        <v>0.9938284464817427</v>
+        <v>1.02404317641352</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034928029233118</v>
+        <v>1.04534276174501</v>
       </c>
       <c r="J14">
-        <v>0.9915369628919242</v>
+        <v>1.031389041685125</v>
       </c>
       <c r="K14">
-        <v>1.007489079837482</v>
+        <v>1.035235744804821</v>
       </c>
       <c r="L14">
-        <v>0.9867083816275365</v>
+        <v>1.034959290782097</v>
       </c>
       <c r="M14">
-        <v>1.00888481840624</v>
+        <v>1.038541877969495</v>
       </c>
       <c r="N14">
-        <v>0.9929450591101099</v>
+        <v>1.013133067670363</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9618621424752382</v>
+        <v>1.002754556467485</v>
       </c>
       <c r="D15">
-        <v>0.9935808854401372</v>
+        <v>1.021201254751767</v>
       </c>
       <c r="E15">
-        <v>0.9726039844895097</v>
+        <v>1.021038429805914</v>
       </c>
       <c r="F15">
-        <v>0.9950821938676123</v>
+        <v>1.024720701213616</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035506473092961</v>
+        <v>1.045597769913883</v>
       </c>
       <c r="J15">
-        <v>0.9927510145011211</v>
+        <v>1.031862791741665</v>
       </c>
       <c r="K15">
-        <v>1.008552273533578</v>
+        <v>1.035664353234365</v>
       </c>
       <c r="L15">
-        <v>0.987986807592416</v>
+        <v>1.035504420146686</v>
       </c>
       <c r="M15">
-        <v>1.010025005467524</v>
+        <v>1.039121583602775</v>
       </c>
       <c r="N15">
-        <v>0.9941608348118456</v>
+        <v>1.013300049848457</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9702708600259893</v>
+        <v>1.00671438361249</v>
       </c>
       <c r="D16">
-        <v>1.000253635533086</v>
+        <v>1.024219849570591</v>
       </c>
       <c r="E16">
-        <v>0.9805459103062925</v>
+        <v>1.02474068497944</v>
       </c>
       <c r="F16">
-        <v>1.002200898147867</v>
+        <v>1.028622570731811</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038782474295769</v>
+        <v>1.047062228770758</v>
       </c>
       <c r="J16">
-        <v>0.9996350055313621</v>
+        <v>1.034588173204641</v>
       </c>
       <c r="K16">
-        <v>1.014581647737471</v>
+        <v>1.038129720723148</v>
       </c>
       <c r="L16">
-        <v>0.9952377878694701</v>
+        <v>1.038641749236031</v>
       </c>
       <c r="M16">
-        <v>1.016493966809612</v>
+        <v>1.042458357602124</v>
       </c>
       <c r="N16">
-        <v>1.001054601898955</v>
+        <v>1.014260516837085</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.975364304854307</v>
+        <v>1.009159635613273</v>
       </c>
       <c r="D17">
-        <v>1.004299953344275</v>
+        <v>1.026085472842716</v>
       </c>
       <c r="E17">
-        <v>0.9853602834112323</v>
+        <v>1.027029168493244</v>
       </c>
       <c r="F17">
-        <v>1.006519384324744</v>
+        <v>1.031034580760531</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040762561564867</v>
+        <v>1.047963857226675</v>
       </c>
       <c r="J17">
-        <v>1.003803261093589</v>
+        <v>1.036270316817908</v>
       </c>
       <c r="K17">
-        <v>1.018233006530445</v>
+        <v>1.039651082179234</v>
       </c>
       <c r="L17">
-        <v>0.999629963099208</v>
+        <v>1.040579313910342</v>
       </c>
       <c r="M17">
-        <v>1.020414062616074</v>
+        <v>1.044519495827656</v>
       </c>
       <c r="N17">
-        <v>1.005228776862185</v>
+        <v>1.014853189338424</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9782747274019143</v>
+        <v>1.010572453719643</v>
       </c>
       <c r="D18">
-        <v>1.006613469350518</v>
+        <v>1.027163935819118</v>
       </c>
       <c r="E18">
-        <v>0.9881124757669729</v>
+        <v>1.028352210556932</v>
       </c>
       <c r="F18">
-        <v>1.008989132876835</v>
+        <v>1.032429090551895</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041892381687327</v>
+        <v>1.048483811471168</v>
       </c>
       <c r="J18">
-        <v>1.006184381736798</v>
+        <v>1.037241911800378</v>
       </c>
       <c r="K18">
-        <v>1.020319013880317</v>
+        <v>1.040529697936537</v>
       </c>
       <c r="L18">
-        <v>1.00213960754454</v>
+        <v>1.041698858471686</v>
       </c>
       <c r="M18">
-        <v>1.022654485422181</v>
+        <v>1.045710587605477</v>
       </c>
       <c r="N18">
-        <v>1.007613278969826</v>
+        <v>1.015195456906427</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.979257259355593</v>
+        <v>1.011051948760645</v>
       </c>
       <c r="D19">
-        <v>1.007394719598188</v>
+        <v>1.027530043558336</v>
       </c>
       <c r="E19">
-        <v>0.9890417919779024</v>
+        <v>1.028801370649866</v>
       </c>
       <c r="F19">
-        <v>1.009823245296265</v>
+        <v>1.032902522610251</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042273519014525</v>
+        <v>1.048660108844372</v>
       </c>
       <c r="J19">
-        <v>1.006988111392957</v>
+        <v>1.037571605461464</v>
       </c>
       <c r="K19">
-        <v>1.021023154474208</v>
+        <v>1.040827821155381</v>
       </c>
       <c r="L19">
-        <v>1.002986822471256</v>
+        <v>1.042078827683117</v>
       </c>
       <c r="M19">
-        <v>1.023410898294113</v>
+        <v>1.046114864425323</v>
       </c>
       <c r="N19">
-        <v>1.008418150014285</v>
+        <v>1.015311589365768</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.974824184716619</v>
+        <v>1.008898685343363</v>
       </c>
       <c r="D20">
-        <v>1.003870720682836</v>
+        <v>1.025886321832332</v>
       </c>
       <c r="E20">
-        <v>0.98484962620381</v>
+        <v>1.026784864417748</v>
       </c>
       <c r="F20">
-        <v>1.006061215490868</v>
+        <v>1.030777084319143</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040552755394041</v>
+        <v>1.047867740270035</v>
       </c>
       <c r="J20">
-        <v>1.003361315785672</v>
+        <v>1.03609083547996</v>
       </c>
       <c r="K20">
-        <v>1.017845847894043</v>
+        <v>1.039488767538032</v>
       </c>
       <c r="L20">
-        <v>0.9991642127529942</v>
+        <v>1.040372536094898</v>
       </c>
       <c r="M20">
-        <v>1.019998316504137</v>
+        <v>1.044299515145967</v>
       </c>
       <c r="N20">
-        <v>1.00478620394124</v>
+        <v>1.014789958084658</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9596668545481809</v>
+        <v>1.001736752194325</v>
       </c>
       <c r="D21">
-        <v>0.9918403647369159</v>
+        <v>1.020425905114018</v>
       </c>
       <c r="E21">
-        <v>0.9705318226576156</v>
+        <v>1.020087564458253</v>
       </c>
       <c r="F21">
-        <v>0.9932259158991575</v>
+        <v>1.023718608493214</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034649886493177</v>
+        <v>1.045220526812725</v>
       </c>
       <c r="J21">
-        <v>0.9909533362486362</v>
+        <v>1.031162039551265</v>
       </c>
       <c r="K21">
-        <v>1.006977990586857</v>
+        <v>1.03503036715393</v>
       </c>
       <c r="L21">
-        <v>0.986093844377109</v>
+        <v>1.034698109988608</v>
       </c>
       <c r="M21">
-        <v>1.008336771998117</v>
+        <v>1.038264139104634</v>
       </c>
       <c r="N21">
-        <v>0.9923606036500459</v>
+        <v>1.013053054074438</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9494802417210341</v>
+        <v>0.997102132909123</v>
       </c>
       <c r="D22">
-        <v>0.9837728201094843</v>
+        <v>1.016898113476594</v>
       </c>
       <c r="E22">
-        <v>0.9609234743255771</v>
+        <v>1.015761524049624</v>
       </c>
       <c r="F22">
-        <v>0.984624723292103</v>
+        <v>1.019159685974625</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030668995547818</v>
+        <v>1.043498714642712</v>
       </c>
       <c r="J22">
-        <v>0.9826098695298729</v>
+        <v>1.027970045209801</v>
       </c>
       <c r="K22">
-        <v>0.9996727434260076</v>
+        <v>1.032142087121899</v>
       </c>
       <c r="L22">
-        <v>0.9773109317934261</v>
+        <v>1.03102707767599</v>
       </c>
       <c r="M22">
-        <v>1.000507047114812</v>
+        <v>1.034360907075281</v>
       </c>
       <c r="N22">
-        <v>0.9840052882515327</v>
+        <v>1.011927796252548</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.954948844497895</v>
+        <v>0.9995720418811699</v>
       </c>
       <c r="D23">
-        <v>0.9881019783307389</v>
+        <v>1.018777589120972</v>
       </c>
       <c r="E23">
-        <v>0.9660802144631173</v>
+        <v>1.018066215821922</v>
       </c>
       <c r="F23">
-        <v>0.9892396608005399</v>
+        <v>1.021588410209832</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032807298916428</v>
+        <v>1.044417115332335</v>
       </c>
       <c r="J23">
-        <v>0.987089331335875</v>
+        <v>1.029671353280198</v>
       </c>
       <c r="K23">
-        <v>1.003594507237439</v>
+        <v>1.033681598729025</v>
       </c>
       <c r="L23">
-        <v>0.9820257648621185</v>
+        <v>1.032983349766002</v>
       </c>
       <c r="M23">
-        <v>1.004709506066837</v>
+        <v>1.036440794952043</v>
       </c>
       <c r="N23">
-        <v>0.9884911114071007</v>
+        <v>1.012527581727517</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9750684275770842</v>
+        <v>1.009016639011303</v>
       </c>
       <c r="D24">
-        <v>1.004064815704607</v>
+        <v>1.025976339576429</v>
       </c>
       <c r="E24">
-        <v>0.9850805420766089</v>
+        <v>1.026895291259071</v>
       </c>
       <c r="F24">
-        <v>1.006268393257317</v>
+        <v>1.030893474019293</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040647634995076</v>
+        <v>1.047911189733811</v>
       </c>
       <c r="J24">
-        <v>1.003561165912761</v>
+        <v>1.036171964875852</v>
       </c>
       <c r="K24">
-        <v>1.01802092268046</v>
+        <v>1.039562137570994</v>
       </c>
       <c r="L24">
-        <v>0.9993748257520488</v>
+        <v>1.040466002777241</v>
       </c>
       <c r="M24">
-        <v>1.020186315908774</v>
+        <v>1.044398949271703</v>
       </c>
       <c r="N24">
-        <v>1.004986337878432</v>
+        <v>1.01481854013654</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9960711093568612</v>
+        <v>1.019452912930217</v>
       </c>
       <c r="D25">
-        <v>1.02078085245597</v>
+        <v>1.033951507467855</v>
       </c>
       <c r="E25">
-        <v>1.004960542556888</v>
+        <v>1.036682010348874</v>
       </c>
       <c r="F25">
-        <v>1.024123794763776</v>
+        <v>1.04120989152175</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048771100324953</v>
+        <v>1.051733987698564</v>
       </c>
       <c r="J25">
-        <v>1.020731423659305</v>
+        <v>1.043342887123041</v>
       </c>
       <c r="K25">
-        <v>1.0330649154758</v>
+        <v>1.046044678843869</v>
       </c>
       <c r="L25">
-        <v>1.017482337478861</v>
+        <v>1.048736374214153</v>
       </c>
       <c r="M25">
-        <v>1.036358816230304</v>
+        <v>1.053200469023113</v>
       </c>
       <c r="N25">
-        <v>1.022180979360432</v>
+        <v>1.017343523086473</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.027402668530206</v>
+        <v>1.058024686599811</v>
       </c>
       <c r="D2">
-        <v>1.040039738370361</v>
+        <v>1.058013116364222</v>
       </c>
       <c r="E2">
-        <v>1.044159280294214</v>
+        <v>1.071505316094598</v>
       </c>
       <c r="F2">
-        <v>1.049093878656985</v>
+        <v>1.078452525360996</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054613649299775</v>
+        <v>1.049543556205747</v>
       </c>
       <c r="J2">
-        <v>1.048793560080789</v>
+        <v>1.063018056746245</v>
       </c>
       <c r="K2">
-        <v>1.050968076081894</v>
+        <v>1.060746512464455</v>
       </c>
       <c r="L2">
-        <v>1.055035867122916</v>
+        <v>1.074202310599899</v>
       </c>
       <c r="M2">
-        <v>1.059909141699132</v>
+        <v>1.081131160339456</v>
       </c>
       <c r="N2">
-        <v>1.019260463539518</v>
+        <v>1.024656386195612</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.032978922791245</v>
+        <v>1.05917670877991</v>
       </c>
       <c r="D3">
-        <v>1.044316452147389</v>
+        <v>1.058910360773672</v>
       </c>
       <c r="E3">
-        <v>1.049416075853978</v>
+        <v>1.072646349474519</v>
       </c>
       <c r="F3">
-        <v>1.054637936044764</v>
+        <v>1.079664636935057</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056614014215476</v>
+        <v>1.049896084677912</v>
       </c>
       <c r="J3">
-        <v>1.052609212626938</v>
+        <v>1.063821807522098</v>
       </c>
       <c r="K3">
-        <v>1.054412037865506</v>
+        <v>1.061457494957119</v>
       </c>
       <c r="L3">
-        <v>1.059453425757428</v>
+        <v>1.075159108995992</v>
       </c>
       <c r="M3">
-        <v>1.064616372962124</v>
+        <v>1.082160196157026</v>
       </c>
       <c r="N3">
-        <v>1.020600785338193</v>
+        <v>1.024933188014408</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.036502705596112</v>
+        <v>1.05992207897531</v>
       </c>
       <c r="D4">
-        <v>1.047021457785593</v>
+        <v>1.059490808882311</v>
       </c>
       <c r="E4">
-        <v>1.052743239819859</v>
+        <v>1.073384971895347</v>
       </c>
       <c r="F4">
-        <v>1.058147577449886</v>
+        <v>1.08044938308939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057868792710312</v>
+        <v>1.05012297768903</v>
       </c>
       <c r="J4">
-        <v>1.055016615683473</v>
+        <v>1.0643412538374</v>
       </c>
       <c r="K4">
-        <v>1.056583658771794</v>
+        <v>1.061916784079721</v>
       </c>
       <c r="L4">
-        <v>1.062244195448813</v>
+        <v>1.075777930463748</v>
       </c>
       <c r="M4">
-        <v>1.067591429254613</v>
+        <v>1.082825903721713</v>
       </c>
       <c r="N4">
-        <v>1.021445609295118</v>
+        <v>1.025111876790004</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.037964754981645</v>
+        <v>1.060235418189632</v>
       </c>
       <c r="D5">
-        <v>1.04814431318488</v>
+        <v>1.059734798648679</v>
       </c>
       <c r="E5">
-        <v>1.054124932973098</v>
+        <v>1.07369556075025</v>
       </c>
       <c r="F5">
-        <v>1.059605214992632</v>
+        <v>1.080779393953256</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05838714025173</v>
+        <v>1.050218072533775</v>
       </c>
       <c r="J5">
-        <v>1.056014516787354</v>
+        <v>1.064559477829238</v>
       </c>
       <c r="K5">
-        <v>1.05748350842003</v>
+        <v>1.062109686716041</v>
       </c>
       <c r="L5">
-        <v>1.063401879682667</v>
+        <v>1.076038014016435</v>
       </c>
       <c r="M5">
-        <v>1.068825872821749</v>
+        <v>1.083105732662149</v>
       </c>
       <c r="N5">
-        <v>1.021795590722721</v>
+        <v>1.025186896938962</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.038209128993318</v>
+        <v>1.060288028411813</v>
       </c>
       <c r="D6">
-        <v>1.04833202177198</v>
+        <v>1.059775763816418</v>
       </c>
       <c r="E6">
-        <v>1.054355946667323</v>
+        <v>1.073747714229304</v>
       </c>
       <c r="F6">
-        <v>1.059848936236454</v>
+        <v>1.080834810329596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058473644717744</v>
+        <v>1.05023402232095</v>
       </c>
       <c r="J6">
-        <v>1.056181253736632</v>
+        <v>1.064596109746018</v>
       </c>
       <c r="K6">
-        <v>1.057633843241874</v>
+        <v>1.062142065227041</v>
       </c>
       <c r="L6">
-        <v>1.063595365930038</v>
+        <v>1.076081679163753</v>
       </c>
       <c r="M6">
-        <v>1.069032206493536</v>
+        <v>1.083152715170818</v>
       </c>
       <c r="N6">
-        <v>1.021854055629592</v>
+        <v>1.025199487253828</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.036522316496111</v>
+        <v>1.05992626588437</v>
       </c>
       <c r="D7">
-        <v>1.047036516983011</v>
+        <v>1.059494069205482</v>
       </c>
       <c r="E7">
-        <v>1.052761768093965</v>
+        <v>1.073389121714998</v>
       </c>
       <c r="F7">
-        <v>1.058167123461437</v>
+        <v>1.08045379230257</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057875754487638</v>
+        <v>1.050124249494023</v>
       </c>
       <c r="J7">
-        <v>1.055030004638982</v>
+        <v>1.064344170350589</v>
       </c>
       <c r="K7">
-        <v>1.056595733426128</v>
+        <v>1.061919362370811</v>
       </c>
       <c r="L7">
-        <v>1.06225972477371</v>
+        <v>1.075781405983131</v>
       </c>
       <c r="M7">
-        <v>1.067607986999305</v>
+        <v>1.082829642944376</v>
       </c>
       <c r="N7">
-        <v>1.021450305881049</v>
+        <v>1.025112879608169</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.029305207525867</v>
+        <v>1.058414032102932</v>
       </c>
       <c r="D8">
-        <v>1.041498342433149</v>
+        <v>1.0583163711907</v>
       </c>
       <c r="E8">
-        <v>1.045951695972667</v>
+        <v>1.071890872520949</v>
       </c>
       <c r="F8">
-        <v>1.050984107753317</v>
+        <v>1.078862075872882</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055298076684071</v>
+        <v>1.04966294688547</v>
       </c>
       <c r="J8">
-        <v>1.05009618312418</v>
+        <v>1.063289819747901</v>
       </c>
       <c r="K8">
-        <v>1.05214406835995</v>
+        <v>1.060986950786525</v>
       </c>
       <c r="L8">
-        <v>1.056543219917432</v>
+        <v>1.074525725782257</v>
       </c>
       <c r="M8">
-        <v>1.061515067733826</v>
+        <v>1.081478958800766</v>
       </c>
       <c r="N8">
-        <v>1.019718200743418</v>
+        <v>1.024750019771353</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01589943383856</v>
+        <v>1.055748730186573</v>
       </c>
       <c r="D9">
-        <v>1.031233717190513</v>
+        <v>1.056240116092831</v>
       </c>
       <c r="E9">
-        <v>1.033346027363977</v>
+        <v>1.069253010260551</v>
       </c>
       <c r="F9">
-        <v>1.037693054921358</v>
+        <v>1.076060512610244</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050437354124699</v>
+        <v>1.048840744502958</v>
       </c>
       <c r="J9">
-        <v>1.04090297007761</v>
+        <v>1.061427035670071</v>
       </c>
       <c r="K9">
-        <v>1.043839588585016</v>
+        <v>1.059338051503546</v>
       </c>
       <c r="L9">
-        <v>1.045920302091214</v>
+        <v>1.072310796270068</v>
       </c>
       <c r="M9">
-        <v>1.050202819521201</v>
+        <v>1.079097716799012</v>
       </c>
       <c r="N9">
-        <v>1.016484724896936</v>
+        <v>1.024107390924486</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.00643619246517</v>
+        <v>1.053971413355758</v>
       </c>
       <c r="D10">
-        <v>1.024007677949324</v>
+        <v>1.054855252868153</v>
       </c>
       <c r="E10">
-        <v>1.024480440018069</v>
+        <v>1.06749589343831</v>
       </c>
       <c r="F10">
-        <v>1.028348285431607</v>
+        <v>1.074194925780419</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046959518729544</v>
+        <v>1.048286320491872</v>
       </c>
       <c r="J10">
-        <v>1.034396757763378</v>
+        <v>1.060181856837108</v>
       </c>
       <c r="K10">
-        <v>1.03795658611353</v>
+        <v>1.058234809407174</v>
       </c>
       <c r="L10">
-        <v>1.038421325986479</v>
+        <v>1.070832610522252</v>
       </c>
       <c r="M10">
-        <v>1.0422238959681</v>
+        <v>1.077509388206718</v>
       </c>
       <c r="N10">
-        <v>1.014193067830696</v>
+        <v>1.023676799391414</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002197973180388</v>
+        <v>1.053201691125721</v>
       </c>
       <c r="D11">
-        <v>1.020777230016553</v>
+        <v>1.054255422007438</v>
       </c>
       <c r="E11">
-        <v>1.020518414794979</v>
+        <v>1.066735376094707</v>
       </c>
       <c r="F11">
-        <v>1.024172668749213</v>
+        <v>1.073387595327678</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045391516386128</v>
+        <v>1.048044752806856</v>
       </c>
       <c r="J11">
-        <v>1.031479598909085</v>
+        <v>1.059641883075656</v>
       </c>
       <c r="K11">
-        <v>1.035317674440938</v>
+        <v>1.057756143302128</v>
       </c>
       <c r="L11">
-        <v>1.035063487016942</v>
+        <v>1.070192157263854</v>
       </c>
       <c r="M11">
-        <v>1.038652681373731</v>
+        <v>1.076821414372013</v>
       </c>
       <c r="N11">
-        <v>1.013164986806312</v>
+        <v>1.02348983180705</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.000601104251706</v>
+        <v>1.05291576049295</v>
       </c>
       <c r="D12">
-        <v>1.019561042621972</v>
+        <v>1.05403259111877</v>
       </c>
       <c r="E12">
-        <v>1.019026958579654</v>
+        <v>1.066452933892593</v>
       </c>
       <c r="F12">
-        <v>1.022600880858751</v>
+        <v>1.073087787794597</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044799221563336</v>
+        <v>1.047954798256855</v>
       </c>
       <c r="J12">
-        <v>1.030380046035494</v>
+        <v>1.059441191211836</v>
       </c>
       <c r="K12">
-        <v>1.034322840217443</v>
+        <v>1.057578201220571</v>
       </c>
       <c r="L12">
-        <v>1.033798490468284</v>
+        <v>1.069954204902135</v>
       </c>
       <c r="M12">
-        <v>1.037307525689533</v>
+        <v>1.076565836491641</v>
       </c>
       <c r="N12">
-        <v>1.012777406051778</v>
+        <v>1.023420305638163</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000944686366314</v>
+        <v>1.052977094584761</v>
       </c>
       <c r="D13">
-        <v>1.019822671598562</v>
+        <v>1.0540803903317</v>
       </c>
       <c r="E13">
-        <v>1.019347798053631</v>
+        <v>1.066513516559114</v>
       </c>
       <c r="F13">
-        <v>1.022938998066995</v>
+        <v>1.073152094338941</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044926726651101</v>
+        <v>1.047974104027031</v>
       </c>
       <c r="J13">
-        <v>1.030616644111301</v>
+        <v>1.059484245813621</v>
       </c>
       <c r="K13">
-        <v>1.034536912225141</v>
+        <v>1.057616376936691</v>
       </c>
       <c r="L13">
-        <v>1.034070658458282</v>
+        <v>1.070005249201102</v>
       </c>
       <c r="M13">
-        <v>1.037596930047622</v>
+        <v>1.076620660361075</v>
       </c>
       <c r="N13">
-        <v>1.012860807264933</v>
+        <v>1.023435222773547</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.002066445720552</v>
+        <v>1.053178056459035</v>
       </c>
       <c r="D14">
-        <v>1.020677037299172</v>
+        <v>1.05423700329073</v>
       </c>
       <c r="E14">
-        <v>1.020395541943638</v>
+        <v>1.066712028365704</v>
       </c>
       <c r="F14">
-        <v>1.02404317641352</v>
+        <v>1.073362811703849</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04534276174501</v>
+        <v>1.048037321739471</v>
       </c>
       <c r="J14">
-        <v>1.031389041685125</v>
+        <v>1.059625296308761</v>
       </c>
       <c r="K14">
-        <v>1.035235744804821</v>
+        <v>1.057741437499386</v>
       </c>
       <c r="L14">
-        <v>1.034959290782097</v>
+        <v>1.070172489267378</v>
       </c>
       <c r="M14">
-        <v>1.038541877969495</v>
+        <v>1.076800288920184</v>
       </c>
       <c r="N14">
-        <v>1.013133067670363</v>
+        <v>1.023484086346093</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002754556467485</v>
+        <v>1.053301872800902</v>
       </c>
       <c r="D15">
-        <v>1.021201254751767</v>
+        <v>1.054333494109015</v>
       </c>
       <c r="E15">
-        <v>1.021038429805914</v>
+        <v>1.066834344341139</v>
       </c>
       <c r="F15">
-        <v>1.024720701213616</v>
+        <v>1.073492650988288</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045597769913883</v>
+        <v>1.048076242357236</v>
       </c>
       <c r="J15">
-        <v>1.031862791741665</v>
+        <v>1.059712186038159</v>
       </c>
       <c r="K15">
-        <v>1.035664353234365</v>
+        <v>1.057818472313713</v>
       </c>
       <c r="L15">
-        <v>1.035504420146686</v>
+        <v>1.070275523475341</v>
       </c>
       <c r="M15">
-        <v>1.039121583602775</v>
+        <v>1.076910959495103</v>
       </c>
       <c r="N15">
-        <v>1.013300049848457</v>
+        <v>1.023514182453996</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00671438361249</v>
+        <v>1.054022494356942</v>
       </c>
       <c r="D16">
-        <v>1.024219849570591</v>
+        <v>1.054895057911672</v>
       </c>
       <c r="E16">
-        <v>1.02474068497944</v>
+        <v>1.067546373236388</v>
       </c>
       <c r="F16">
-        <v>1.028622570731811</v>
+        <v>1.074248515664661</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047062228770758</v>
+        <v>1.048302320936298</v>
       </c>
       <c r="J16">
-        <v>1.034588173204641</v>
+        <v>1.060217676119171</v>
       </c>
       <c r="K16">
-        <v>1.038129720723148</v>
+        <v>1.058266556719689</v>
       </c>
       <c r="L16">
-        <v>1.038641749236031</v>
+        <v>1.070875107008644</v>
       </c>
       <c r="M16">
-        <v>1.042458357602124</v>
+        <v>1.077555042092419</v>
       </c>
       <c r="N16">
-        <v>1.014260516837085</v>
+        <v>1.023689196873396</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009159635613273</v>
+        <v>1.054474484634752</v>
       </c>
       <c r="D17">
-        <v>1.026085472842716</v>
+        <v>1.055247264544731</v>
       </c>
       <c r="E17">
-        <v>1.027029168493244</v>
+        <v>1.067993096573859</v>
       </c>
       <c r="F17">
-        <v>1.031034580760531</v>
+        <v>1.074722777444434</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047963857226675</v>
+        <v>1.048443732577502</v>
       </c>
       <c r="J17">
-        <v>1.036270316817908</v>
+        <v>1.06053454103607</v>
       </c>
       <c r="K17">
-        <v>1.039651082179234</v>
+        <v>1.058547372055828</v>
       </c>
       <c r="L17">
-        <v>1.040579313910342</v>
+        <v>1.071251105010269</v>
       </c>
       <c r="M17">
-        <v>1.044519495827656</v>
+        <v>1.077958999158979</v>
       </c>
       <c r="N17">
-        <v>1.014853189338424</v>
+        <v>1.023798839830184</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010572453719643</v>
+        <v>1.054738110260798</v>
       </c>
       <c r="D18">
-        <v>1.027163935819118</v>
+        <v>1.055452683776811</v>
       </c>
       <c r="E18">
-        <v>1.028352210556932</v>
+        <v>1.068253694254401</v>
       </c>
       <c r="F18">
-        <v>1.032429090551895</v>
+        <v>1.074999452810187</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048483811471168</v>
+        <v>1.04852607104766</v>
       </c>
       <c r="J18">
-        <v>1.037241911800378</v>
+        <v>1.060719285553683</v>
       </c>
       <c r="K18">
-        <v>1.040529697936537</v>
+        <v>1.058711074794025</v>
       </c>
       <c r="L18">
-        <v>1.041698858471686</v>
+        <v>1.071470380813698</v>
       </c>
       <c r="M18">
-        <v>1.045710587605477</v>
+        <v>1.078194599614513</v>
       </c>
       <c r="N18">
-        <v>1.015195456906427</v>
+        <v>1.023862742684957</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011051948760645</v>
+        <v>1.054827997689978</v>
       </c>
       <c r="D19">
-        <v>1.027530043558336</v>
+        <v>1.055522723570608</v>
       </c>
       <c r="E19">
-        <v>1.028801370649866</v>
+        <v>1.068342556709647</v>
       </c>
       <c r="F19">
-        <v>1.032902522610251</v>
+        <v>1.075093799886049</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048660108844372</v>
+        <v>1.048554121833584</v>
       </c>
       <c r="J19">
-        <v>1.037571605461464</v>
+        <v>1.060782265554534</v>
       </c>
       <c r="K19">
-        <v>1.040827821155381</v>
+        <v>1.05876687759743</v>
       </c>
       <c r="L19">
-        <v>1.042078827683117</v>
+        <v>1.071545141872551</v>
       </c>
       <c r="M19">
-        <v>1.046114864425323</v>
+        <v>1.078274929777059</v>
       </c>
       <c r="N19">
-        <v>1.015311589365768</v>
+        <v>1.023884523426702</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008898685343363</v>
+        <v>1.054425991676258</v>
       </c>
       <c r="D20">
-        <v>1.025886321832332</v>
+        <v>1.055209477862177</v>
       </c>
       <c r="E20">
-        <v>1.026784864417748</v>
+        <v>1.067945164135792</v>
       </c>
       <c r="F20">
-        <v>1.030777084319143</v>
+        <v>1.074671888844075</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047867740270035</v>
+        <v>1.048428575400999</v>
       </c>
       <c r="J20">
-        <v>1.03609083547996</v>
+        <v>1.060500552444352</v>
       </c>
       <c r="K20">
-        <v>1.039488767538032</v>
+        <v>1.058517252758742</v>
       </c>
       <c r="L20">
-        <v>1.040372536094898</v>
+        <v>1.071210767866164</v>
       </c>
       <c r="M20">
-        <v>1.044299515145967</v>
+        <v>1.077915660555255</v>
       </c>
       <c r="N20">
-        <v>1.014789958084658</v>
+        <v>1.023787081354249</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001736752194325</v>
+        <v>1.053118878803306</v>
       </c>
       <c r="D21">
-        <v>1.020425905114018</v>
+        <v>1.054190885427642</v>
       </c>
       <c r="E21">
-        <v>1.020087564458253</v>
+        <v>1.066653570276141</v>
       </c>
       <c r="F21">
-        <v>1.023718608493214</v>
+        <v>1.073300758744047</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045220526812725</v>
+        <v>1.048018711928746</v>
       </c>
       <c r="J21">
-        <v>1.031162039551265</v>
+        <v>1.059583763816659</v>
       </c>
       <c r="K21">
-        <v>1.03503036715393</v>
+        <v>1.057704614266354</v>
       </c>
       <c r="L21">
-        <v>1.034698109988608</v>
+        <v>1.070123242887291</v>
       </c>
       <c r="M21">
-        <v>1.038264139104634</v>
+        <v>1.076747393728023</v>
       </c>
       <c r="N21">
-        <v>1.013053054074438</v>
+        <v>1.023469699398707</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.997102132909123</v>
+        <v>1.052296919711259</v>
       </c>
       <c r="D22">
-        <v>1.016898113476594</v>
+        <v>1.053550299443735</v>
       </c>
       <c r="E22">
-        <v>1.015761524049624</v>
+        <v>1.065841769946363</v>
       </c>
       <c r="F22">
-        <v>1.019159685974625</v>
+        <v>1.072439084635962</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043498714642712</v>
+        <v>1.047759709284769</v>
       </c>
       <c r="J22">
-        <v>1.027970045209801</v>
+        <v>1.059006638623048</v>
       </c>
       <c r="K22">
-        <v>1.032142087121899</v>
+        <v>1.057192841678915</v>
       </c>
       <c r="L22">
-        <v>1.03102707767599</v>
+        <v>1.069439127968894</v>
       </c>
       <c r="M22">
-        <v>1.034360907075281</v>
+        <v>1.076012662073808</v>
       </c>
       <c r="N22">
-        <v>1.011927796252548</v>
+        <v>1.023269696916439</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9995720418811699</v>
+        <v>1.052732668209359</v>
       </c>
       <c r="D23">
-        <v>1.018777589120972</v>
+        <v>1.053889901217308</v>
       </c>
       <c r="E23">
-        <v>1.018066215821922</v>
+        <v>1.066272094884955</v>
       </c>
       <c r="F23">
-        <v>1.021588410209832</v>
+        <v>1.072895835978476</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044417115332335</v>
+        <v>1.047897135350524</v>
       </c>
       <c r="J23">
-        <v>1.029671353280198</v>
+        <v>1.059312650623016</v>
       </c>
       <c r="K23">
-        <v>1.033681598729025</v>
+        <v>1.057464221346852</v>
       </c>
       <c r="L23">
-        <v>1.032983349766002</v>
+        <v>1.069801823265386</v>
       </c>
       <c r="M23">
-        <v>1.036440794952043</v>
+        <v>1.076402176182675</v>
       </c>
       <c r="N23">
-        <v>1.012527581727517</v>
+        <v>1.023375764903059</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009016639011303</v>
+        <v>1.054447903595494</v>
       </c>
       <c r="D24">
-        <v>1.025976339576429</v>
+        <v>1.055226552089617</v>
       </c>
       <c r="E24">
-        <v>1.026895291259071</v>
+        <v>1.067966822643589</v>
       </c>
       <c r="F24">
-        <v>1.030893474019293</v>
+        <v>1.07469488306805</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047911189733811</v>
+        <v>1.048435424723101</v>
       </c>
       <c r="J24">
-        <v>1.036171964875852</v>
+        <v>1.060515910664872</v>
       </c>
       <c r="K24">
-        <v>1.039562137570994</v>
+        <v>1.058530862656941</v>
       </c>
       <c r="L24">
-        <v>1.040466002777241</v>
+        <v>1.071228994600735</v>
       </c>
       <c r="M24">
-        <v>1.044398949271703</v>
+        <v>1.077935243468907</v>
       </c>
       <c r="N24">
-        <v>1.01481854013654</v>
+        <v>1.023792394657882</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019452912930217</v>
+        <v>1.056437848080899</v>
       </c>
       <c r="D25">
-        <v>1.033951507467855</v>
+        <v>1.056776998478831</v>
       </c>
       <c r="E25">
-        <v>1.036682010348874</v>
+        <v>1.069934700166778</v>
       </c>
       <c r="F25">
-        <v>1.04120989152175</v>
+        <v>1.076784405495674</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051733987698564</v>
+        <v>1.049054410756217</v>
       </c>
       <c r="J25">
-        <v>1.043342887123041</v>
+        <v>1.061909192784223</v>
       </c>
       <c r="K25">
-        <v>1.046044678843869</v>
+        <v>1.059765030172507</v>
       </c>
       <c r="L25">
-        <v>1.048736374214153</v>
+        <v>1.072883681284438</v>
       </c>
       <c r="M25">
-        <v>1.053200469023113</v>
+        <v>1.079713468156488</v>
       </c>
       <c r="N25">
-        <v>1.017343523086473</v>
+        <v>1.024273908395151</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058024686599811</v>
+        <v>1.027402668530203</v>
       </c>
       <c r="D2">
-        <v>1.058013116364222</v>
+        <v>1.040039738370359</v>
       </c>
       <c r="E2">
-        <v>1.071505316094598</v>
+        <v>1.044159280294211</v>
       </c>
       <c r="F2">
-        <v>1.078452525360996</v>
+        <v>1.049093878656982</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049543556205747</v>
+        <v>1.054613649299774</v>
       </c>
       <c r="J2">
-        <v>1.063018056746245</v>
+        <v>1.048793560080787</v>
       </c>
       <c r="K2">
-        <v>1.060746512464455</v>
+        <v>1.050968076081892</v>
       </c>
       <c r="L2">
-        <v>1.074202310599899</v>
+        <v>1.055035867122914</v>
       </c>
       <c r="M2">
-        <v>1.081131160339456</v>
+        <v>1.05990914169913</v>
       </c>
       <c r="N2">
-        <v>1.024656386195612</v>
+        <v>1.019260463539518</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05917670877991</v>
+        <v>1.032978922791245</v>
       </c>
       <c r="D3">
-        <v>1.058910360773672</v>
+        <v>1.044316452147388</v>
       </c>
       <c r="E3">
-        <v>1.072646349474519</v>
+        <v>1.049416075853977</v>
       </c>
       <c r="F3">
-        <v>1.079664636935057</v>
+        <v>1.054637936044764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049896084677912</v>
+        <v>1.056614014215476</v>
       </c>
       <c r="J3">
-        <v>1.063821807522098</v>
+        <v>1.052609212626938</v>
       </c>
       <c r="K3">
-        <v>1.061457494957119</v>
+        <v>1.054412037865505</v>
       </c>
       <c r="L3">
-        <v>1.075159108995992</v>
+        <v>1.059453425757428</v>
       </c>
       <c r="M3">
-        <v>1.082160196157026</v>
+        <v>1.064616372962123</v>
       </c>
       <c r="N3">
-        <v>1.024933188014408</v>
+        <v>1.020600785338193</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05992207897531</v>
+        <v>1.036502705596112</v>
       </c>
       <c r="D4">
-        <v>1.059490808882311</v>
+        <v>1.047021457785592</v>
       </c>
       <c r="E4">
-        <v>1.073384971895347</v>
+        <v>1.052743239819859</v>
       </c>
       <c r="F4">
-        <v>1.08044938308939</v>
+        <v>1.058147577449886</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05012297768903</v>
+        <v>1.057868792710311</v>
       </c>
       <c r="J4">
-        <v>1.0643412538374</v>
+        <v>1.055016615683473</v>
       </c>
       <c r="K4">
-        <v>1.061916784079721</v>
+        <v>1.056583658771794</v>
       </c>
       <c r="L4">
-        <v>1.075777930463748</v>
+        <v>1.062244195448813</v>
       </c>
       <c r="M4">
-        <v>1.082825903721713</v>
+        <v>1.067591429254613</v>
       </c>
       <c r="N4">
-        <v>1.025111876790004</v>
+        <v>1.021445609295117</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060235418189632</v>
+        <v>1.037964754981644</v>
       </c>
       <c r="D5">
-        <v>1.059734798648679</v>
+        <v>1.048144313184879</v>
       </c>
       <c r="E5">
-        <v>1.07369556075025</v>
+        <v>1.054124932973097</v>
       </c>
       <c r="F5">
-        <v>1.080779393953256</v>
+        <v>1.05960521499263</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050218072533775</v>
+        <v>1.05838714025173</v>
       </c>
       <c r="J5">
-        <v>1.064559477829238</v>
+        <v>1.056014516787353</v>
       </c>
       <c r="K5">
-        <v>1.062109686716041</v>
+        <v>1.057483508420028</v>
       </c>
       <c r="L5">
-        <v>1.076038014016435</v>
+        <v>1.063401879682665</v>
       </c>
       <c r="M5">
-        <v>1.083105732662149</v>
+        <v>1.068825872821747</v>
       </c>
       <c r="N5">
-        <v>1.025186896938962</v>
+        <v>1.021795590722721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060288028411813</v>
+        <v>1.038209128993316</v>
       </c>
       <c r="D6">
-        <v>1.059775763816418</v>
+        <v>1.048332021771978</v>
       </c>
       <c r="E6">
-        <v>1.073747714229304</v>
+        <v>1.054355946667321</v>
       </c>
       <c r="F6">
-        <v>1.080834810329596</v>
+        <v>1.059848936236452</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05023402232095</v>
+        <v>1.058473644717742</v>
       </c>
       <c r="J6">
-        <v>1.064596109746018</v>
+        <v>1.056181253736629</v>
       </c>
       <c r="K6">
-        <v>1.062142065227041</v>
+        <v>1.057633843241872</v>
       </c>
       <c r="L6">
-        <v>1.076081679163753</v>
+        <v>1.063595365930035</v>
       </c>
       <c r="M6">
-        <v>1.083152715170818</v>
+        <v>1.069032206493533</v>
       </c>
       <c r="N6">
-        <v>1.025199487253828</v>
+        <v>1.021854055629592</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05992626588437</v>
+        <v>1.036522316496111</v>
       </c>
       <c r="D7">
-        <v>1.059494069205482</v>
+        <v>1.047036516983011</v>
       </c>
       <c r="E7">
-        <v>1.073389121714998</v>
+        <v>1.052761768093965</v>
       </c>
       <c r="F7">
-        <v>1.08045379230257</v>
+        <v>1.058167123461438</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050124249494023</v>
+        <v>1.057875754487637</v>
       </c>
       <c r="J7">
-        <v>1.064344170350589</v>
+        <v>1.055030004638983</v>
       </c>
       <c r="K7">
-        <v>1.061919362370811</v>
+        <v>1.056595733426128</v>
       </c>
       <c r="L7">
-        <v>1.075781405983131</v>
+        <v>1.062259724773711</v>
       </c>
       <c r="M7">
-        <v>1.082829642944376</v>
+        <v>1.067607986999304</v>
       </c>
       <c r="N7">
-        <v>1.025112879608169</v>
+        <v>1.021450305881049</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058414032102932</v>
+        <v>1.029305207525867</v>
       </c>
       <c r="D8">
-        <v>1.0583163711907</v>
+        <v>1.041498342433149</v>
       </c>
       <c r="E8">
-        <v>1.071890872520949</v>
+        <v>1.045951695972667</v>
       </c>
       <c r="F8">
-        <v>1.078862075872882</v>
+        <v>1.050984107753317</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04966294688547</v>
+        <v>1.055298076684071</v>
       </c>
       <c r="J8">
-        <v>1.063289819747901</v>
+        <v>1.05009618312418</v>
       </c>
       <c r="K8">
-        <v>1.060986950786525</v>
+        <v>1.05214406835995</v>
       </c>
       <c r="L8">
-        <v>1.074525725782257</v>
+        <v>1.056543219917433</v>
       </c>
       <c r="M8">
-        <v>1.081478958800766</v>
+        <v>1.061515067733827</v>
       </c>
       <c r="N8">
-        <v>1.024750019771353</v>
+        <v>1.019718200743418</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055748730186573</v>
+        <v>1.01589943383856</v>
       </c>
       <c r="D9">
-        <v>1.056240116092831</v>
+        <v>1.031233717190514</v>
       </c>
       <c r="E9">
-        <v>1.069253010260551</v>
+        <v>1.033346027363977</v>
       </c>
       <c r="F9">
-        <v>1.076060512610244</v>
+        <v>1.037693054921359</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048840744502958</v>
+        <v>1.050437354124699</v>
       </c>
       <c r="J9">
-        <v>1.061427035670071</v>
+        <v>1.04090297007761</v>
       </c>
       <c r="K9">
-        <v>1.059338051503546</v>
+        <v>1.043839588585017</v>
       </c>
       <c r="L9">
-        <v>1.072310796270068</v>
+        <v>1.045920302091215</v>
       </c>
       <c r="M9">
-        <v>1.079097716799012</v>
+        <v>1.050202819521201</v>
       </c>
       <c r="N9">
-        <v>1.024107390924486</v>
+        <v>1.016484724896936</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053971413355758</v>
+        <v>1.00643619246517</v>
       </c>
       <c r="D10">
-        <v>1.054855252868153</v>
+        <v>1.024007677949324</v>
       </c>
       <c r="E10">
-        <v>1.06749589343831</v>
+        <v>1.024480440018069</v>
       </c>
       <c r="F10">
-        <v>1.074194925780419</v>
+        <v>1.028348285431608</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048286320491872</v>
+        <v>1.046959518729544</v>
       </c>
       <c r="J10">
-        <v>1.060181856837108</v>
+        <v>1.034396757763378</v>
       </c>
       <c r="K10">
-        <v>1.058234809407174</v>
+        <v>1.03795658611353</v>
       </c>
       <c r="L10">
-        <v>1.070832610522252</v>
+        <v>1.038421325986479</v>
       </c>
       <c r="M10">
-        <v>1.077509388206718</v>
+        <v>1.042223895968101</v>
       </c>
       <c r="N10">
-        <v>1.023676799391414</v>
+        <v>1.014193067830696</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.053201691125721</v>
+        <v>1.00219797318039</v>
       </c>
       <c r="D11">
-        <v>1.054255422007438</v>
+        <v>1.020777230016555</v>
       </c>
       <c r="E11">
-        <v>1.066735376094707</v>
+        <v>1.020518414794981</v>
       </c>
       <c r="F11">
-        <v>1.073387595327678</v>
+        <v>1.024172668749215</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048044752806856</v>
+        <v>1.04539151638613</v>
       </c>
       <c r="J11">
-        <v>1.059641883075656</v>
+        <v>1.031479598909086</v>
       </c>
       <c r="K11">
-        <v>1.057756143302128</v>
+        <v>1.035317674440939</v>
       </c>
       <c r="L11">
-        <v>1.070192157263854</v>
+        <v>1.035063487016944</v>
       </c>
       <c r="M11">
-        <v>1.076821414372013</v>
+        <v>1.038652681373732</v>
       </c>
       <c r="N11">
-        <v>1.02348983180705</v>
+        <v>1.013164986806313</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.05291576049295</v>
+        <v>1.000601104251705</v>
       </c>
       <c r="D12">
-        <v>1.05403259111877</v>
+        <v>1.019561042621972</v>
       </c>
       <c r="E12">
-        <v>1.066452933892593</v>
+        <v>1.019026958579653</v>
       </c>
       <c r="F12">
-        <v>1.073087787794597</v>
+        <v>1.022600880858749</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047954798256855</v>
+        <v>1.044799221563336</v>
       </c>
       <c r="J12">
-        <v>1.059441191211836</v>
+        <v>1.030380046035494</v>
       </c>
       <c r="K12">
-        <v>1.057578201220571</v>
+        <v>1.034322840217443</v>
       </c>
       <c r="L12">
-        <v>1.069954204902135</v>
+        <v>1.033798490468284</v>
       </c>
       <c r="M12">
-        <v>1.076565836491641</v>
+        <v>1.037307525689532</v>
       </c>
       <c r="N12">
-        <v>1.023420305638163</v>
+        <v>1.012777406051778</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052977094584761</v>
+        <v>1.000944686366314</v>
       </c>
       <c r="D13">
-        <v>1.0540803903317</v>
+        <v>1.019822671598562</v>
       </c>
       <c r="E13">
-        <v>1.066513516559114</v>
+        <v>1.01934779805363</v>
       </c>
       <c r="F13">
-        <v>1.073152094338941</v>
+        <v>1.022938998066994</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047974104027031</v>
+        <v>1.044926726651101</v>
       </c>
       <c r="J13">
-        <v>1.059484245813621</v>
+        <v>1.030616644111301</v>
       </c>
       <c r="K13">
-        <v>1.057616376936691</v>
+        <v>1.034536912225142</v>
       </c>
       <c r="L13">
-        <v>1.070005249201102</v>
+        <v>1.034070658458282</v>
       </c>
       <c r="M13">
-        <v>1.076620660361075</v>
+        <v>1.037596930047621</v>
       </c>
       <c r="N13">
-        <v>1.023435222773547</v>
+        <v>1.012860807264933</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.053178056459035</v>
+        <v>1.002066445720551</v>
       </c>
       <c r="D14">
-        <v>1.05423700329073</v>
+        <v>1.020677037299171</v>
       </c>
       <c r="E14">
-        <v>1.066712028365704</v>
+        <v>1.020395541943637</v>
       </c>
       <c r="F14">
-        <v>1.073362811703849</v>
+        <v>1.024043176413518</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048037321739471</v>
+        <v>1.04534276174501</v>
       </c>
       <c r="J14">
-        <v>1.059625296308761</v>
+        <v>1.031389041685124</v>
       </c>
       <c r="K14">
-        <v>1.057741437499386</v>
+        <v>1.035235744804821</v>
       </c>
       <c r="L14">
-        <v>1.070172489267378</v>
+        <v>1.034959290782095</v>
       </c>
       <c r="M14">
-        <v>1.076800288920184</v>
+        <v>1.038541877969493</v>
       </c>
       <c r="N14">
-        <v>1.023484086346093</v>
+        <v>1.013133067670363</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.053301872800902</v>
+        <v>1.002754556467484</v>
       </c>
       <c r="D15">
-        <v>1.054333494109015</v>
+        <v>1.021201254751767</v>
       </c>
       <c r="E15">
-        <v>1.066834344341139</v>
+        <v>1.021038429805913</v>
       </c>
       <c r="F15">
-        <v>1.073492650988288</v>
+        <v>1.024720701213615</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048076242357236</v>
+        <v>1.045597769913883</v>
       </c>
       <c r="J15">
-        <v>1.059712186038159</v>
+        <v>1.031862791741664</v>
       </c>
       <c r="K15">
-        <v>1.057818472313713</v>
+        <v>1.035664353234364</v>
       </c>
       <c r="L15">
-        <v>1.070275523475341</v>
+        <v>1.035504420146685</v>
       </c>
       <c r="M15">
-        <v>1.076910959495103</v>
+        <v>1.039121583602774</v>
       </c>
       <c r="N15">
-        <v>1.023514182453996</v>
+        <v>1.013300049848457</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.054022494356942</v>
+        <v>1.006714383612491</v>
       </c>
       <c r="D16">
-        <v>1.054895057911672</v>
+        <v>1.024219849570592</v>
       </c>
       <c r="E16">
-        <v>1.067546373236388</v>
+        <v>1.024740684979441</v>
       </c>
       <c r="F16">
-        <v>1.074248515664661</v>
+        <v>1.028622570731812</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048302320936298</v>
+        <v>1.047062228770758</v>
       </c>
       <c r="J16">
-        <v>1.060217676119171</v>
+        <v>1.034588173204642</v>
       </c>
       <c r="K16">
-        <v>1.058266556719689</v>
+        <v>1.038129720723149</v>
       </c>
       <c r="L16">
-        <v>1.070875107008644</v>
+        <v>1.038641749236032</v>
       </c>
       <c r="M16">
-        <v>1.077555042092419</v>
+        <v>1.042458357602124</v>
       </c>
       <c r="N16">
-        <v>1.023689196873396</v>
+        <v>1.014260516837085</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.054474484634752</v>
+        <v>1.009159635613273</v>
       </c>
       <c r="D17">
-        <v>1.055247264544731</v>
+        <v>1.026085472842716</v>
       </c>
       <c r="E17">
-        <v>1.067993096573859</v>
+        <v>1.027029168493244</v>
       </c>
       <c r="F17">
-        <v>1.074722777444434</v>
+        <v>1.031034580760532</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048443732577502</v>
+        <v>1.047963857226675</v>
       </c>
       <c r="J17">
-        <v>1.06053454103607</v>
+        <v>1.036270316817908</v>
       </c>
       <c r="K17">
-        <v>1.058547372055828</v>
+        <v>1.039651082179234</v>
       </c>
       <c r="L17">
-        <v>1.071251105010269</v>
+        <v>1.040579313910342</v>
       </c>
       <c r="M17">
-        <v>1.077958999158979</v>
+        <v>1.044519495827657</v>
       </c>
       <c r="N17">
-        <v>1.023798839830184</v>
+        <v>1.014853189338424</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054738110260798</v>
+        <v>1.010572453719643</v>
       </c>
       <c r="D18">
-        <v>1.055452683776811</v>
+        <v>1.027163935819118</v>
       </c>
       <c r="E18">
-        <v>1.068253694254401</v>
+        <v>1.028352210556932</v>
       </c>
       <c r="F18">
-        <v>1.074999452810187</v>
+        <v>1.032429090551894</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04852607104766</v>
+        <v>1.048483811471168</v>
       </c>
       <c r="J18">
-        <v>1.060719285553683</v>
+        <v>1.037241911800378</v>
       </c>
       <c r="K18">
-        <v>1.058711074794025</v>
+        <v>1.040529697936537</v>
       </c>
       <c r="L18">
-        <v>1.071470380813698</v>
+        <v>1.041698858471686</v>
       </c>
       <c r="M18">
-        <v>1.078194599614513</v>
+        <v>1.045710587605477</v>
       </c>
       <c r="N18">
-        <v>1.023862742684957</v>
+        <v>1.015195456906426</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054827997689978</v>
+        <v>1.011051948760646</v>
       </c>
       <c r="D19">
-        <v>1.055522723570608</v>
+        <v>1.027530043558336</v>
       </c>
       <c r="E19">
-        <v>1.068342556709647</v>
+        <v>1.028801370649866</v>
       </c>
       <c r="F19">
-        <v>1.075093799886049</v>
+        <v>1.032902522610252</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048554121833584</v>
+        <v>1.048660108844373</v>
       </c>
       <c r="J19">
-        <v>1.060782265554534</v>
+        <v>1.037571605461465</v>
       </c>
       <c r="K19">
-        <v>1.05876687759743</v>
+        <v>1.040827821155381</v>
       </c>
       <c r="L19">
-        <v>1.071545141872551</v>
+        <v>1.042078827683118</v>
       </c>
       <c r="M19">
-        <v>1.078274929777059</v>
+        <v>1.046114864425324</v>
       </c>
       <c r="N19">
-        <v>1.023884523426702</v>
+        <v>1.015311589365768</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.054425991676258</v>
+        <v>1.008898685343362</v>
       </c>
       <c r="D20">
-        <v>1.055209477862177</v>
+        <v>1.025886321832331</v>
       </c>
       <c r="E20">
-        <v>1.067945164135792</v>
+        <v>1.026784864417746</v>
       </c>
       <c r="F20">
-        <v>1.074671888844075</v>
+        <v>1.030777084319142</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048428575400999</v>
+        <v>1.047867740270034</v>
       </c>
       <c r="J20">
-        <v>1.060500552444352</v>
+        <v>1.036090835479959</v>
       </c>
       <c r="K20">
-        <v>1.058517252758742</v>
+        <v>1.039488767538031</v>
       </c>
       <c r="L20">
-        <v>1.071210767866164</v>
+        <v>1.040372536094897</v>
       </c>
       <c r="M20">
-        <v>1.077915660555255</v>
+        <v>1.044299515145966</v>
       </c>
       <c r="N20">
-        <v>1.023787081354249</v>
+        <v>1.014789958084658</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.053118878803306</v>
+        <v>1.001736752194325</v>
       </c>
       <c r="D21">
-        <v>1.054190885427642</v>
+        <v>1.020425905114018</v>
       </c>
       <c r="E21">
-        <v>1.066653570276141</v>
+        <v>1.020087564458253</v>
       </c>
       <c r="F21">
-        <v>1.073300758744047</v>
+        <v>1.023718608493214</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048018711928746</v>
+        <v>1.045220526812725</v>
       </c>
       <c r="J21">
-        <v>1.059583763816659</v>
+        <v>1.031162039551265</v>
       </c>
       <c r="K21">
-        <v>1.057704614266354</v>
+        <v>1.03503036715393</v>
       </c>
       <c r="L21">
-        <v>1.070123242887291</v>
+        <v>1.034698109988608</v>
       </c>
       <c r="M21">
-        <v>1.076747393728023</v>
+        <v>1.038264139104634</v>
       </c>
       <c r="N21">
-        <v>1.023469699398707</v>
+        <v>1.013053054074438</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.052296919711259</v>
+        <v>0.997102132909122</v>
       </c>
       <c r="D22">
-        <v>1.053550299443735</v>
+        <v>1.016898113476592</v>
       </c>
       <c r="E22">
-        <v>1.065841769946363</v>
+        <v>1.015761524049623</v>
       </c>
       <c r="F22">
-        <v>1.072439084635962</v>
+        <v>1.019159685974624</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047759709284769</v>
+        <v>1.043498714642712</v>
       </c>
       <c r="J22">
-        <v>1.059006638623048</v>
+        <v>1.0279700452098</v>
       </c>
       <c r="K22">
-        <v>1.057192841678915</v>
+        <v>1.032142087121898</v>
       </c>
       <c r="L22">
-        <v>1.069439127968894</v>
+        <v>1.031027077675989</v>
       </c>
       <c r="M22">
-        <v>1.076012662073808</v>
+        <v>1.03436090707528</v>
       </c>
       <c r="N22">
-        <v>1.023269696916439</v>
+        <v>1.011927796252547</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052732668209359</v>
+        <v>0.9995720418811712</v>
       </c>
       <c r="D23">
-        <v>1.053889901217308</v>
+        <v>1.018777589120974</v>
       </c>
       <c r="E23">
-        <v>1.066272094884955</v>
+        <v>1.018066215821924</v>
       </c>
       <c r="F23">
-        <v>1.072895835978476</v>
+        <v>1.021588410209834</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047897135350524</v>
+        <v>1.044417115332336</v>
       </c>
       <c r="J23">
-        <v>1.059312650623016</v>
+        <v>1.029671353280199</v>
       </c>
       <c r="K23">
-        <v>1.057464221346852</v>
+        <v>1.033681598729026</v>
       </c>
       <c r="L23">
-        <v>1.069801823265386</v>
+        <v>1.032983349766004</v>
       </c>
       <c r="M23">
-        <v>1.076402176182675</v>
+        <v>1.036440794952044</v>
       </c>
       <c r="N23">
-        <v>1.023375764903059</v>
+        <v>1.012527581727517</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.054447903595494</v>
+        <v>1.009016639011304</v>
       </c>
       <c r="D24">
-        <v>1.055226552089617</v>
+        <v>1.02597633957643</v>
       </c>
       <c r="E24">
-        <v>1.067966822643589</v>
+        <v>1.026895291259073</v>
       </c>
       <c r="F24">
-        <v>1.07469488306805</v>
+        <v>1.030893474019295</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048435424723101</v>
+        <v>1.047911189733812</v>
       </c>
       <c r="J24">
-        <v>1.060515910664872</v>
+        <v>1.036171964875853</v>
       </c>
       <c r="K24">
-        <v>1.058530862656941</v>
+        <v>1.039562137570996</v>
       </c>
       <c r="L24">
-        <v>1.071228994600735</v>
+        <v>1.040466002777243</v>
       </c>
       <c r="M24">
-        <v>1.077935243468907</v>
+        <v>1.044398949271705</v>
       </c>
       <c r="N24">
-        <v>1.023792394657882</v>
+        <v>1.014818540136541</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056437848080899</v>
+        <v>1.019452912930215</v>
       </c>
       <c r="D25">
-        <v>1.056776998478831</v>
+        <v>1.033951507467853</v>
       </c>
       <c r="E25">
-        <v>1.069934700166778</v>
+        <v>1.036682010348872</v>
       </c>
       <c r="F25">
-        <v>1.076784405495674</v>
+        <v>1.041209891521748</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049054410756217</v>
+        <v>1.051733987698564</v>
       </c>
       <c r="J25">
-        <v>1.061909192784223</v>
+        <v>1.043342887123039</v>
       </c>
       <c r="K25">
-        <v>1.059765030172507</v>
+        <v>1.046044678843868</v>
       </c>
       <c r="L25">
-        <v>1.072883681284438</v>
+        <v>1.048736374214152</v>
       </c>
       <c r="M25">
-        <v>1.079713468156488</v>
+        <v>1.053200469023111</v>
       </c>
       <c r="N25">
-        <v>1.024273908395151</v>
+        <v>1.017343523086473</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027402668530203</v>
+        <v>1.00308248018385</v>
       </c>
       <c r="D2">
-        <v>1.040039738370359</v>
+        <v>1.028045532899257</v>
       </c>
       <c r="E2">
-        <v>1.044159280294211</v>
+        <v>1.011237337552205</v>
       </c>
       <c r="F2">
-        <v>1.049093878656982</v>
+        <v>1.034581070479998</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054613649299774</v>
+        <v>1.052118929633694</v>
       </c>
       <c r="J2">
-        <v>1.048793560080787</v>
+        <v>1.02517138406931</v>
       </c>
       <c r="K2">
-        <v>1.050968076081892</v>
+        <v>1.039127501157532</v>
       </c>
       <c r="L2">
-        <v>1.055035867122914</v>
+        <v>1.022542307233051</v>
       </c>
       <c r="M2">
-        <v>1.05990914169913</v>
+        <v>1.045578774816378</v>
       </c>
       <c r="N2">
-        <v>1.019260463539518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01227205132723</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04464492176326</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038736807492449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032978922791245</v>
+        <v>1.00682487129683</v>
       </c>
       <c r="D3">
-        <v>1.044316452147388</v>
+        <v>1.030520936315476</v>
       </c>
       <c r="E3">
-        <v>1.049416075853977</v>
+        <v>1.01448217203172</v>
       </c>
       <c r="F3">
-        <v>1.054637936044764</v>
+        <v>1.037142137812629</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056614014215476</v>
+        <v>1.052925779481228</v>
       </c>
       <c r="J3">
-        <v>1.052609212626938</v>
+        <v>1.027131196871461</v>
       </c>
       <c r="K3">
-        <v>1.054412037865505</v>
+        <v>1.040777639678125</v>
       </c>
       <c r="L3">
-        <v>1.059453425757428</v>
+        <v>1.024933044406451</v>
       </c>
       <c r="M3">
-        <v>1.064616372962123</v>
+        <v>1.047320850573113</v>
       </c>
       <c r="N3">
-        <v>1.020600785338193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012933912309407</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046023648756339</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039900934327123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036502705596112</v>
+        <v>1.009204645814275</v>
       </c>
       <c r="D4">
-        <v>1.047021457785592</v>
+        <v>1.032097224871047</v>
       </c>
       <c r="E4">
-        <v>1.052743239819859</v>
+        <v>1.016551089788484</v>
       </c>
       <c r="F4">
-        <v>1.058147577449886</v>
+        <v>1.038775532287423</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057868792710311</v>
+        <v>1.053426290452279</v>
       </c>
       <c r="J4">
-        <v>1.055016615683473</v>
+        <v>1.028375790970456</v>
       </c>
       <c r="K4">
-        <v>1.056583658771794</v>
+        <v>1.041823103827852</v>
       </c>
       <c r="L4">
-        <v>1.062244195448813</v>
+        <v>1.026453778885486</v>
       </c>
       <c r="M4">
-        <v>1.067591429254613</v>
+        <v>1.048427454275725</v>
       </c>
       <c r="N4">
-        <v>1.021445609295117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013354213704634</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046899444225911</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040641061483267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037964754981644</v>
+        <v>1.010198115753791</v>
       </c>
       <c r="D5">
-        <v>1.048144313184879</v>
+        <v>1.032757396406657</v>
       </c>
       <c r="E5">
-        <v>1.054124932973097</v>
+        <v>1.017416431540872</v>
       </c>
       <c r="F5">
-        <v>1.05960521499263</v>
+        <v>1.039459071071248</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05838714025173</v>
+        <v>1.053633394133707</v>
       </c>
       <c r="J5">
-        <v>1.056014516787353</v>
+        <v>1.028896177407512</v>
       </c>
       <c r="K5">
-        <v>1.057483508420028</v>
+        <v>1.042260807712504</v>
       </c>
       <c r="L5">
-        <v>1.063401879682665</v>
+        <v>1.027089656467381</v>
       </c>
       <c r="M5">
-        <v>1.068825872821747</v>
+        <v>1.04889022716447</v>
       </c>
       <c r="N5">
-        <v>1.021795590722721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013530310477546</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047265694634316</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040957715730159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038209128993316</v>
+        <v>1.010367676573012</v>
       </c>
       <c r="D6">
-        <v>1.048332021771978</v>
+        <v>1.032872097835826</v>
       </c>
       <c r="E6">
-        <v>1.054355946667321</v>
+        <v>1.017564612358193</v>
       </c>
       <c r="F6">
-        <v>1.059848936236452</v>
+        <v>1.039576457754733</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058473644717742</v>
+        <v>1.053670047333512</v>
       </c>
       <c r="J6">
-        <v>1.056181253736629</v>
+        <v>1.028986468452806</v>
       </c>
       <c r="K6">
-        <v>1.057633843241872</v>
+        <v>1.042338152398214</v>
       </c>
       <c r="L6">
-        <v>1.063595365930035</v>
+        <v>1.027199330968216</v>
       </c>
       <c r="M6">
-        <v>1.069032206493533</v>
+        <v>1.04897055660116</v>
       </c>
       <c r="N6">
-        <v>1.021854055629592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013561311702975</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047329269405327</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04102113766955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036522316496111</v>
+        <v>1.009226851845741</v>
       </c>
       <c r="D7">
-        <v>1.047036516983011</v>
+        <v>1.032117304189142</v>
       </c>
       <c r="E7">
-        <v>1.052761768093965</v>
+        <v>1.016571530666638</v>
       </c>
       <c r="F7">
-        <v>1.058167123461438</v>
+        <v>1.038792551088448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057875754487637</v>
+        <v>1.053434897311915</v>
       </c>
       <c r="J7">
-        <v>1.055030004638983</v>
+        <v>1.028391437423743</v>
       </c>
       <c r="K7">
-        <v>1.056595733426128</v>
+        <v>1.041840082326845</v>
       </c>
       <c r="L7">
-        <v>1.062259724773711</v>
+        <v>1.026471047165113</v>
       </c>
       <c r="M7">
-        <v>1.067607986999304</v>
+        <v>1.048441434019572</v>
       </c>
       <c r="N7">
-        <v>1.021450305881049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013360726717483</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046910508158674</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.040673154125432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029305207525867</v>
+        <v>1.004367102154966</v>
       </c>
       <c r="D8">
-        <v>1.041498342433149</v>
+        <v>1.028901228549926</v>
       </c>
       <c r="E8">
-        <v>1.045951695972667</v>
+        <v>1.012351387164198</v>
       </c>
       <c r="F8">
-        <v>1.050984107753317</v>
+        <v>1.035461245961189</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055298076684071</v>
+        <v>1.052403233406167</v>
       </c>
       <c r="J8">
-        <v>1.05009618312418</v>
+        <v>1.025849378067868</v>
       </c>
       <c r="K8">
-        <v>1.05214406835995</v>
+        <v>1.039703443565248</v>
       </c>
       <c r="L8">
-        <v>1.056543219917433</v>
+        <v>1.02336661040892</v>
       </c>
       <c r="M8">
-        <v>1.061515067733827</v>
+        <v>1.046181376646095</v>
       </c>
       <c r="N8">
-        <v>1.019718200743418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012502618345211</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045121837830925</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039166941042275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01589943383856</v>
+        <v>0.9954553695174982</v>
       </c>
       <c r="D9">
-        <v>1.031233717190514</v>
+        <v>1.023014826868432</v>
       </c>
       <c r="E9">
-        <v>1.033346027363977</v>
+        <v>1.004655971174578</v>
       </c>
       <c r="F9">
-        <v>1.037693054921359</v>
+        <v>1.029390112479232</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050437354124699</v>
+        <v>1.050407940330685</v>
       </c>
       <c r="J9">
-        <v>1.04090297007761</v>
+        <v>1.021169637448127</v>
       </c>
       <c r="K9">
-        <v>1.043839588585017</v>
+        <v>1.035745222872586</v>
       </c>
       <c r="L9">
-        <v>1.045920302091215</v>
+        <v>1.017673957472645</v>
       </c>
       <c r="M9">
-        <v>1.050202819521201</v>
+        <v>1.04202369609171</v>
       </c>
       <c r="N9">
-        <v>1.016484724896936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010920774550244</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04183132594414</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036365040346337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00643619246517</v>
+        <v>0.9893138132475682</v>
       </c>
       <c r="D10">
-        <v>1.024007677949324</v>
+        <v>1.018992420675821</v>
       </c>
       <c r="E10">
-        <v>1.024480440018069</v>
+        <v>0.999390913348565</v>
       </c>
       <c r="F10">
-        <v>1.028348285431608</v>
+        <v>1.025307145966092</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046959518729544</v>
+        <v>1.048988613867956</v>
       </c>
       <c r="J10">
-        <v>1.034396757763378</v>
+        <v>1.017957921432619</v>
       </c>
       <c r="K10">
-        <v>1.03795658611353</v>
+        <v>1.033027024180911</v>
       </c>
       <c r="L10">
-        <v>1.038421325986479</v>
+        <v>1.013771173758147</v>
       </c>
       <c r="M10">
-        <v>1.042223895968101</v>
+        <v>1.039234026685992</v>
       </c>
       <c r="N10">
-        <v>1.014193067830696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009841419759358</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039674854153663</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034459926176395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00219797318039</v>
+        <v>0.9869265016184846</v>
       </c>
       <c r="D11">
-        <v>1.020777230016555</v>
+        <v>1.017563572719371</v>
       </c>
       <c r="E11">
-        <v>1.020518414794981</v>
+        <v>0.9973961473981245</v>
       </c>
       <c r="F11">
-        <v>1.024172668749215</v>
+        <v>1.024282537818925</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04539151638613</v>
+        <v>1.048558016229543</v>
       </c>
       <c r="J11">
-        <v>1.031479598909086</v>
+        <v>1.016853451753315</v>
       </c>
       <c r="K11">
-        <v>1.035317674440939</v>
+        <v>1.032161696476154</v>
       </c>
       <c r="L11">
-        <v>1.035063487016944</v>
+        <v>1.012367336194781</v>
       </c>
       <c r="M11">
-        <v>1.038652681373732</v>
+        <v>1.038760603681944</v>
       </c>
       <c r="N11">
-        <v>1.013164986806313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009520027552396</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039735769824546</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033880988997595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000601104251705</v>
+        <v>0.9861297718193464</v>
       </c>
       <c r="D12">
-        <v>1.019561042621972</v>
+        <v>1.017127035119347</v>
       </c>
       <c r="E12">
-        <v>1.019026958579653</v>
+        <v>0.9967465042390674</v>
       </c>
       <c r="F12">
-        <v>1.022600880858749</v>
+        <v>1.024158132258254</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044799221563336</v>
+        <v>1.048456746126561</v>
       </c>
       <c r="J12">
-        <v>1.030380046035494</v>
+        <v>1.01653296993004</v>
       </c>
       <c r="K12">
-        <v>1.034322840217443</v>
+        <v>1.031933303206122</v>
       </c>
       <c r="L12">
-        <v>1.033798490468284</v>
+        <v>1.011936302671383</v>
       </c>
       <c r="M12">
-        <v>1.037307525689532</v>
+        <v>1.038836688195358</v>
       </c>
       <c r="N12">
-        <v>1.012777406051778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009451026462214</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.04012188685141</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033719507113517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000944686366314</v>
+        <v>0.9865193151163485</v>
       </c>
       <c r="D13">
-        <v>1.019822671598562</v>
+        <v>1.017443485920891</v>
       </c>
       <c r="E13">
-        <v>1.01934779805363</v>
+        <v>0.9971016653360666</v>
       </c>
       <c r="F13">
-        <v>1.022938998066994</v>
+        <v>1.024742337742077</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044926726651101</v>
+        <v>1.048617756768215</v>
       </c>
       <c r="J13">
-        <v>1.030616644111301</v>
+        <v>1.016810613231727</v>
       </c>
       <c r="K13">
-        <v>1.034536912225142</v>
+        <v>1.032201018108224</v>
       </c>
       <c r="L13">
-        <v>1.034070658458282</v>
+        <v>1.012240382975817</v>
       </c>
       <c r="M13">
-        <v>1.037596930047621</v>
+        <v>1.039367888520374</v>
       </c>
       <c r="N13">
-        <v>1.012860807264933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009578726969887</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040818201211563</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033906294342527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002066445720551</v>
+        <v>0.9873294613592352</v>
       </c>
       <c r="D14">
-        <v>1.020677037299171</v>
+        <v>1.018006397237685</v>
       </c>
       <c r="E14">
-        <v>1.020395541943637</v>
+        <v>0.9978054939227604</v>
       </c>
       <c r="F14">
-        <v>1.024043176413518</v>
+        <v>1.025471574059063</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04534276174501</v>
+        <v>1.048848954834252</v>
       </c>
       <c r="J14">
-        <v>1.031389041685124</v>
+        <v>1.017275439987215</v>
       </c>
       <c r="K14">
-        <v>1.035235744804821</v>
+        <v>1.032613079448435</v>
       </c>
       <c r="L14">
-        <v>1.034959290782095</v>
+        <v>1.012785937783033</v>
       </c>
       <c r="M14">
-        <v>1.038541877969493</v>
+        <v>1.039944966918551</v>
       </c>
       <c r="N14">
-        <v>1.013133067670363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009757090747923</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041447473780401</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034199062757908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002754556467484</v>
+        <v>0.9877904649588098</v>
       </c>
       <c r="D15">
-        <v>1.021201254751767</v>
+        <v>1.018315957528254</v>
       </c>
       <c r="E15">
-        <v>1.021038429805913</v>
+        <v>0.9982018207172644</v>
       </c>
       <c r="F15">
-        <v>1.024720701213615</v>
+        <v>1.025818811412903</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045597769913883</v>
+        <v>1.048967425340144</v>
       </c>
       <c r="J15">
-        <v>1.031862791741664</v>
+        <v>1.017525923258837</v>
       </c>
       <c r="K15">
-        <v>1.035664353234364</v>
+        <v>1.032830478359014</v>
       </c>
       <c r="L15">
-        <v>1.035504420146685</v>
+        <v>1.013085611231732</v>
       </c>
       <c r="M15">
-        <v>1.039121583602774</v>
+        <v>1.040200394855374</v>
       </c>
       <c r="N15">
-        <v>1.013300049848457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009846270128679</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041686854884771</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034358650338103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006714383612491</v>
+        <v>0.9903220025111873</v>
       </c>
       <c r="D16">
-        <v>1.024219849570592</v>
+        <v>1.019971424021241</v>
       </c>
       <c r="E16">
-        <v>1.024740684979441</v>
+        <v>1.000363916527199</v>
       </c>
       <c r="F16">
-        <v>1.028622570731812</v>
+        <v>1.027473299775235</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047062228770758</v>
+        <v>1.04956292831239</v>
       </c>
       <c r="J16">
-        <v>1.034588173204642</v>
+        <v>1.01884689880821</v>
       </c>
       <c r="K16">
-        <v>1.038129720723149</v>
+        <v>1.033953566519735</v>
       </c>
       <c r="L16">
-        <v>1.038641749236032</v>
+        <v>1.014689945021535</v>
       </c>
       <c r="M16">
-        <v>1.042458357602124</v>
+        <v>1.041328346402592</v>
       </c>
       <c r="N16">
-        <v>1.014260516837085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010283927229077</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042539719356357</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035155884995974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009159635613273</v>
+        <v>0.9918414828112909</v>
       </c>
       <c r="D17">
-        <v>1.026085472842716</v>
+        <v>1.020947545387727</v>
       </c>
       <c r="E17">
-        <v>1.027029168493244</v>
+        <v>1.001656842141154</v>
       </c>
       <c r="F17">
-        <v>1.031034580760532</v>
+        <v>1.028356189669286</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047963857226675</v>
+        <v>1.049895168097148</v>
       </c>
       <c r="J17">
-        <v>1.036270316817908</v>
+        <v>1.019616831746182</v>
       </c>
       <c r="K17">
-        <v>1.039651082179234</v>
+        <v>1.03459799347083</v>
       </c>
       <c r="L17">
-        <v>1.040579313910342</v>
+        <v>1.015635883144883</v>
       </c>
       <c r="M17">
-        <v>1.044519495827657</v>
+        <v>1.041884651484376</v>
       </c>
       <c r="N17">
-        <v>1.014853189338424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010526228249153</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.04285058620835</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035614108919013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010572453719643</v>
+        <v>0.9926211814518222</v>
       </c>
       <c r="D18">
-        <v>1.027163935819118</v>
+        <v>1.021407788984682</v>
       </c>
       <c r="E18">
-        <v>1.028352210556932</v>
+        <v>1.002307031501091</v>
       </c>
       <c r="F18">
-        <v>1.032429090551894</v>
+        <v>1.028611482516543</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048483811471168</v>
+        <v>1.050020708394415</v>
       </c>
       <c r="J18">
-        <v>1.037241911800378</v>
+        <v>1.019965879481371</v>
       </c>
       <c r="K18">
-        <v>1.040529697936537</v>
+        <v>1.034866951693308</v>
       </c>
       <c r="L18">
-        <v>1.041698858471686</v>
+        <v>1.016086061047756</v>
       </c>
       <c r="M18">
-        <v>1.045710587605477</v>
+        <v>1.041953967394505</v>
       </c>
       <c r="N18">
-        <v>1.015195456906426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010614734821992</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042668084476471</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035792625305078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011051948760646</v>
+        <v>0.9927251365849314</v>
       </c>
       <c r="D19">
-        <v>1.027530043558336</v>
+        <v>1.02139706231539</v>
       </c>
       <c r="E19">
-        <v>1.028801370649866</v>
+        <v>1.00236871481494</v>
       </c>
       <c r="F19">
-        <v>1.032902522610252</v>
+        <v>1.02828780848443</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048660108844373</v>
+        <v>1.049959019309643</v>
       </c>
       <c r="J19">
-        <v>1.037571605461465</v>
+        <v>1.019929572148851</v>
       </c>
       <c r="K19">
-        <v>1.040827821155381</v>
+        <v>1.03479378065371</v>
       </c>
       <c r="L19">
-        <v>1.042078827683118</v>
+        <v>1.016082361399717</v>
       </c>
       <c r="M19">
-        <v>1.046114864425324</v>
+        <v>1.041573466408026</v>
       </c>
       <c r="N19">
-        <v>1.015311589365768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010566335451233</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042042321653062</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035747290431851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008898685343362</v>
+        <v>0.9909277559113329</v>
       </c>
       <c r="D20">
-        <v>1.025886321832331</v>
+        <v>1.020061364157972</v>
       </c>
       <c r="E20">
-        <v>1.026784864417746</v>
+        <v>1.000775251750837</v>
       </c>
       <c r="F20">
-        <v>1.030777084319142</v>
+        <v>1.026385414995326</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047867740270034</v>
+        <v>1.049375646122622</v>
       </c>
       <c r="J20">
-        <v>1.036090835479959</v>
+        <v>1.018812933080351</v>
       </c>
       <c r="K20">
-        <v>1.039488767538031</v>
+        <v>1.033760398443752</v>
       </c>
       <c r="L20">
-        <v>1.040372536094897</v>
+        <v>1.014804482975297</v>
       </c>
       <c r="M20">
-        <v>1.044299515145966</v>
+        <v>1.03997965039735</v>
       </c>
       <c r="N20">
-        <v>1.014789958084658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010132620501503</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040254401982461</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035020572563859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001736752194325</v>
+        <v>0.9862507610614271</v>
       </c>
       <c r="D21">
-        <v>1.020425905114018</v>
+        <v>1.016975900966652</v>
       </c>
       <c r="E21">
-        <v>1.020087564458253</v>
+        <v>0.9967683569988719</v>
       </c>
       <c r="F21">
-        <v>1.023718608493214</v>
+        <v>1.023177745089517</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045220526812725</v>
+        <v>1.048245226073835</v>
       </c>
       <c r="J21">
-        <v>1.031162039551265</v>
+        <v>1.016334796167724</v>
       </c>
       <c r="K21">
-        <v>1.03503036715393</v>
+        <v>1.031642642237319</v>
       </c>
       <c r="L21">
-        <v>1.034698109988608</v>
+        <v>1.011811213590738</v>
       </c>
       <c r="M21">
-        <v>1.038264139104634</v>
+        <v>1.037732922045798</v>
       </c>
       <c r="N21">
-        <v>1.013053054074438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009290368939195</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03843546423828</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033526470493435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.997102132909122</v>
+        <v>0.9832643713748992</v>
       </c>
       <c r="D22">
-        <v>1.016898113476592</v>
+        <v>1.015013819583794</v>
       </c>
       <c r="E22">
-        <v>1.015761524049623</v>
+        <v>0.9942189684967788</v>
       </c>
       <c r="F22">
-        <v>1.019159685974624</v>
+        <v>1.02117109077238</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043498714642712</v>
+        <v>1.047516521738989</v>
       </c>
       <c r="J22">
-        <v>1.0279700452098</v>
+        <v>1.014757096583397</v>
       </c>
       <c r="K22">
-        <v>1.032142087121898</v>
+        <v>1.03029360405817</v>
       </c>
       <c r="L22">
-        <v>1.031027077675989</v>
+        <v>1.009905825296131</v>
       </c>
       <c r="M22">
-        <v>1.03436090707528</v>
+        <v>1.036334496218638</v>
       </c>
       <c r="N22">
-        <v>1.011927796252547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.0087555135574</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037328699918549</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032559109909378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9995720418811712</v>
+        <v>0.9848451108072972</v>
       </c>
       <c r="D23">
-        <v>1.018777589120974</v>
+        <v>1.016047624461831</v>
       </c>
       <c r="E23">
-        <v>1.018066215821924</v>
+        <v>0.9955666020880568</v>
       </c>
       <c r="F23">
-        <v>1.021588410209834</v>
+        <v>1.02223117221393</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044417115332336</v>
+        <v>1.047900383021684</v>
       </c>
       <c r="J23">
-        <v>1.029671353280199</v>
+        <v>1.015588810948709</v>
       </c>
       <c r="K23">
-        <v>1.033681598729026</v>
+        <v>1.031002130496898</v>
       </c>
       <c r="L23">
-        <v>1.032983349766004</v>
+        <v>1.010911538911259</v>
       </c>
       <c r="M23">
-        <v>1.036440794952044</v>
+        <v>1.037071803608277</v>
       </c>
       <c r="N23">
-        <v>1.012527581727517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009036120771625</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037912231625909</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033050415945272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009016639011304</v>
+        <v>0.9909588536737448</v>
       </c>
       <c r="D24">
-        <v>1.02597633957643</v>
+        <v>1.020061770198223</v>
       </c>
       <c r="E24">
-        <v>1.026895291259073</v>
+        <v>1.00079586649575</v>
       </c>
       <c r="F24">
-        <v>1.030893474019295</v>
+        <v>1.0263486999494</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047911189733812</v>
+        <v>1.049364640614641</v>
       </c>
       <c r="J24">
-        <v>1.036171964875853</v>
+        <v>1.018809432652475</v>
       </c>
       <c r="K24">
-        <v>1.039562137570996</v>
+        <v>1.033745505982119</v>
       </c>
       <c r="L24">
-        <v>1.040466002777243</v>
+        <v>1.014809020226887</v>
       </c>
       <c r="M24">
-        <v>1.044398949271705</v>
+        <v>1.039928380698233</v>
       </c>
       <c r="N24">
-        <v>1.014818540136541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01012497712763</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040173025450337</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034982606427992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019452912930215</v>
+        <v>0.9978148617774724</v>
       </c>
       <c r="D25">
-        <v>1.033951507467853</v>
+        <v>1.024578616971729</v>
       </c>
       <c r="E25">
-        <v>1.036682010348872</v>
+        <v>1.00668972003719</v>
       </c>
       <c r="F25">
-        <v>1.041209891521748</v>
+        <v>1.030994960989315</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051733987698564</v>
+        <v>1.050953007977377</v>
       </c>
       <c r="J25">
-        <v>1.043342887123039</v>
+        <v>1.022415988984183</v>
       </c>
       <c r="K25">
-        <v>1.046044678843868</v>
+        <v>1.036806997494016</v>
       </c>
       <c r="L25">
-        <v>1.048736374214152</v>
+        <v>1.019185066817445</v>
       </c>
       <c r="M25">
-        <v>1.053200469023111</v>
+        <v>1.043130446048345</v>
       </c>
       <c r="N25">
-        <v>1.017343523086473</v>
+        <v>1.011344194675229</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.0427072421864</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037144375896758</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00308248018385</v>
+        <v>1.00279555621182</v>
       </c>
       <c r="D2">
-        <v>1.028045532899257</v>
+        <v>1.027250565096919</v>
       </c>
       <c r="E2">
-        <v>1.011237337552205</v>
+        <v>1.010952324822739</v>
       </c>
       <c r="F2">
-        <v>1.034581070479998</v>
+        <v>1.034064305965351</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052118929633694</v>
+        <v>1.051708879489246</v>
       </c>
       <c r="J2">
-        <v>1.02517138406931</v>
+        <v>1.024892972972014</v>
       </c>
       <c r="K2">
-        <v>1.039127501157532</v>
+        <v>1.038342874609164</v>
       </c>
       <c r="L2">
-        <v>1.022542307233051</v>
+        <v>1.022261156304625</v>
       </c>
       <c r="M2">
-        <v>1.045578774816378</v>
+        <v>1.045068624570066</v>
       </c>
       <c r="N2">
-        <v>1.01227205132723</v>
+        <v>1.013785900989099</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04464492176326</v>
+        <v>1.044241174240765</v>
       </c>
       <c r="Q2">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R2">
-        <v>1.038736807492449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038190781310006</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022275381686457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00682487129683</v>
+        <v>1.006395467830718</v>
       </c>
       <c r="D3">
-        <v>1.030520936315476</v>
+        <v>1.029552536236479</v>
       </c>
       <c r="E3">
-        <v>1.01448217203172</v>
+        <v>1.014055148438206</v>
       </c>
       <c r="F3">
-        <v>1.037142137812629</v>
+        <v>1.03650104121054</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052925779481228</v>
+        <v>1.052425212270552</v>
       </c>
       <c r="J3">
-        <v>1.027131196871461</v>
+        <v>1.026713291408898</v>
       </c>
       <c r="K3">
-        <v>1.040777639678125</v>
+        <v>1.039820750523136</v>
       </c>
       <c r="L3">
-        <v>1.024933044406451</v>
+        <v>1.024511294931522</v>
       </c>
       <c r="M3">
-        <v>1.047320850573113</v>
+        <v>1.046687251490227</v>
       </c>
       <c r="N3">
-        <v>1.012933912309407</v>
+        <v>1.014274020785528</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046023648756339</v>
+        <v>1.045522201197133</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039900934327123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039232826704864</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022568455636263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009204645814275</v>
+        <v>1.008685598733356</v>
       </c>
       <c r="D4">
-        <v>1.032097224871047</v>
+        <v>1.031019134945386</v>
       </c>
       <c r="E4">
-        <v>1.016551089788484</v>
+        <v>1.01603456408062</v>
       </c>
       <c r="F4">
-        <v>1.038775532287423</v>
+        <v>1.038055906341561</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053426290452279</v>
+        <v>1.052868367675961</v>
       </c>
       <c r="J4">
-        <v>1.028375790970456</v>
+        <v>1.027869705624844</v>
       </c>
       <c r="K4">
-        <v>1.041823103827852</v>
+        <v>1.040757063445438</v>
       </c>
       <c r="L4">
-        <v>1.026453778885486</v>
+        <v>1.02594324251866</v>
       </c>
       <c r="M4">
-        <v>1.048427454275725</v>
+        <v>1.047715741406028</v>
       </c>
       <c r="N4">
-        <v>1.013354213704634</v>
+        <v>1.014584152704378</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046899444225911</v>
+        <v>1.046336175936468</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040641061483267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039895856355249</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02275171092515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010198115753791</v>
+        <v>1.009641852281605</v>
       </c>
       <c r="D5">
-        <v>1.032757396406657</v>
+        <v>1.031633714353059</v>
       </c>
       <c r="E5">
-        <v>1.017416431540872</v>
+        <v>1.016862715141485</v>
       </c>
       <c r="F5">
-        <v>1.039459071071248</v>
+        <v>1.038706818582365</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053633394133707</v>
+        <v>1.053051606013629</v>
       </c>
       <c r="J5">
-        <v>1.028896177407512</v>
+        <v>1.02835339161648</v>
       </c>
       <c r="K5">
-        <v>1.042260807712504</v>
+        <v>1.041149353597054</v>
       </c>
       <c r="L5">
-        <v>1.027089656467381</v>
+        <v>1.026542187342321</v>
       </c>
       <c r="M5">
-        <v>1.04889022716447</v>
+        <v>1.048146028296446</v>
       </c>
       <c r="N5">
-        <v>1.013530310477546</v>
+        <v>1.014714156576453</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047265694634316</v>
+        <v>1.046676716353363</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040957715730159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040181109518958</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022828306074904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,105 +687,123 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010367676573012</v>
+        <v>1.009805059606533</v>
       </c>
       <c r="D6">
-        <v>1.032872097835826</v>
+        <v>1.031740717281325</v>
       </c>
       <c r="E6">
-        <v>1.017564612358193</v>
+        <v>1.017004545469117</v>
       </c>
       <c r="F6">
-        <v>1.039576457754733</v>
+        <v>1.038818685425207</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053670047333512</v>
+        <v>1.053084227597217</v>
       </c>
       <c r="J6">
-        <v>1.028986468452806</v>
+        <v>1.028437413285169</v>
       </c>
       <c r="K6">
-        <v>1.042338152398214</v>
+        <v>1.041219027695469</v>
       </c>
       <c r="L6">
-        <v>1.027199330968216</v>
+        <v>1.026645553671282</v>
       </c>
       <c r="M6">
-        <v>1.04897055660116</v>
+        <v>1.048220860187118</v>
       </c>
       <c r="N6">
-        <v>1.013561311702975</v>
+        <v>1.014737079090054</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047329269405327</v>
+        <v>1.046735940273268</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04102113766955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040239975714534</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022842368292281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.009226851845741</v>
+        <v>1.008714841717978</v>
       </c>
       <c r="D7">
-        <v>1.032117304189142</v>
+        <v>1.031043553200313</v>
       </c>
       <c r="E7">
-        <v>1.016571530666638</v>
+        <v>1.016062005640307</v>
       </c>
       <c r="F7">
-        <v>1.038792551088448</v>
+        <v>1.038076657040698</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053434897311915</v>
+        <v>1.052879262736561</v>
       </c>
       <c r="J7">
-        <v>1.028391437423743</v>
+        <v>1.027892207754844</v>
       </c>
       <c r="K7">
-        <v>1.041840082326845</v>
+        <v>1.040778327749215</v>
       </c>
       <c r="L7">
-        <v>1.026471047165113</v>
+        <v>1.025967427982658</v>
       </c>
       <c r="M7">
-        <v>1.048441434019572</v>
+        <v>1.047733409041103</v>
       </c>
       <c r="N7">
-        <v>1.013360726717483</v>
+        <v>1.014617092879616</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046910508158674</v>
+        <v>1.046350158572894</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040673154125432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039932976429939</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022757751060918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004367102154966</v>
+        <v>1.004055332927383</v>
       </c>
       <c r="D8">
-        <v>1.028901228549926</v>
+        <v>1.028062732782618</v>
       </c>
       <c r="E8">
-        <v>1.012351387164198</v>
+        <v>1.012041573955906</v>
       </c>
       <c r="F8">
-        <v>1.035461245961189</v>
+        <v>1.03491522621309</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052403233406167</v>
+        <v>1.051970554337405</v>
       </c>
       <c r="J8">
-        <v>1.025849378067868</v>
+        <v>1.02554654905998</v>
       </c>
       <c r="K8">
-        <v>1.039703443565248</v>
+        <v>1.038875533968607</v>
       </c>
       <c r="L8">
-        <v>1.02336661040892</v>
+        <v>1.023060867975456</v>
       </c>
       <c r="M8">
-        <v>1.046181376646095</v>
+        <v>1.045642139686621</v>
       </c>
       <c r="N8">
-        <v>1.012502618345211</v>
+        <v>1.014041344170612</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045121837830925</v>
+        <v>1.044695070521593</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039166941042275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038592574580781</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022384829143025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9954553695174982</v>
+        <v>0.9954926464125735</v>
       </c>
       <c r="D9">
-        <v>1.023014826868432</v>
+        <v>1.022595180961848</v>
       </c>
       <c r="E9">
-        <v>1.004655971174578</v>
+        <v>1.004692908962715</v>
       </c>
       <c r="F9">
-        <v>1.029390112479232</v>
+        <v>1.029145411646967</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050407940330685</v>
+        <v>1.050193235351518</v>
       </c>
       <c r="J9">
-        <v>1.021169637448127</v>
+        <v>1.021205581168988</v>
       </c>
       <c r="K9">
-        <v>1.035745222872586</v>
+        <v>1.035332003551735</v>
       </c>
       <c r="L9">
-        <v>1.017673957472645</v>
+        <v>1.017710303101492</v>
       </c>
       <c r="M9">
-        <v>1.04202369609171</v>
+        <v>1.041782682994056</v>
       </c>
       <c r="N9">
-        <v>1.010920774550244</v>
+        <v>1.012886140122756</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04183132594414</v>
+        <v>1.041640580563141</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036365040346337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03608361291401</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021667313474645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9893138132475682</v>
+        <v>0.9896302671474688</v>
       </c>
       <c r="D10">
-        <v>1.018992420675821</v>
+        <v>1.018885662275372</v>
       </c>
       <c r="E10">
-        <v>0.999390913348565</v>
+        <v>0.9997038174671831</v>
       </c>
       <c r="F10">
-        <v>1.025307145966092</v>
+        <v>1.025291105195334</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048988613867956</v>
+        <v>1.048936251528392</v>
       </c>
       <c r="J10">
-        <v>1.017957921432619</v>
+        <v>1.018261437298849</v>
       </c>
       <c r="K10">
-        <v>1.033027024180911</v>
+        <v>1.03292210180932</v>
       </c>
       <c r="L10">
-        <v>1.013771173758147</v>
+        <v>1.014078421641079</v>
       </c>
       <c r="M10">
-        <v>1.039234026685992</v>
+        <v>1.039218257385108</v>
       </c>
       <c r="N10">
-        <v>1.009841419759358</v>
+        <v>1.012218503608955</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039674854153663</v>
+        <v>1.03966237457068</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034459926176395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034398165623942</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021174105357318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9869265016184846</v>
+        <v>0.9873841184140211</v>
       </c>
       <c r="D11">
-        <v>1.017563572719371</v>
+        <v>1.017594734022479</v>
       </c>
       <c r="E11">
-        <v>0.9973961473981245</v>
+        <v>0.9978481901360933</v>
       </c>
       <c r="F11">
-        <v>1.024282537818925</v>
+        <v>1.024371271499628</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048558016229543</v>
+        <v>1.048577367319523</v>
       </c>
       <c r="J11">
-        <v>1.016853451753315</v>
+        <v>1.017291316698692</v>
       </c>
       <c r="K11">
-        <v>1.032161696476154</v>
+        <v>1.03219229621673</v>
       </c>
       <c r="L11">
-        <v>1.012367336194781</v>
+        <v>1.012810800850479</v>
       </c>
       <c r="M11">
-        <v>1.038760603681944</v>
+        <v>1.038847765492891</v>
       </c>
       <c r="N11">
-        <v>1.009520027552396</v>
+        <v>1.012223190029584</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039735769824546</v>
+        <v>1.03980471376422</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033880988997595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033918262352808</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021059505556726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9861297718193464</v>
+        <v>0.9866327790312007</v>
       </c>
       <c r="D12">
-        <v>1.017127035119347</v>
+        <v>1.017201504427418</v>
       </c>
       <c r="E12">
-        <v>0.9967465042390674</v>
+        <v>0.9972432024398072</v>
       </c>
       <c r="F12">
-        <v>1.024158132258254</v>
+        <v>1.024280399650025</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048456746126561</v>
+        <v>1.048498662841792</v>
       </c>
       <c r="J12">
-        <v>1.01653296993004</v>
+        <v>1.017013839111187</v>
       </c>
       <c r="K12">
-        <v>1.031933303206122</v>
+        <v>1.03200640781391</v>
       </c>
       <c r="L12">
-        <v>1.011936302671383</v>
+        <v>1.012423409611999</v>
       </c>
       <c r="M12">
-        <v>1.038836688195358</v>
+        <v>1.038956754890846</v>
       </c>
       <c r="N12">
-        <v>1.009451026462214</v>
+        <v>1.012277168117928</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04012188685141</v>
+        <v>1.040216826102712</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033719507113517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033786835641593</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021043475566186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9865193151163485</v>
+        <v>0.9869849358314003</v>
       </c>
       <c r="D13">
-        <v>1.017443485920891</v>
+        <v>1.017483295246379</v>
       </c>
       <c r="E13">
-        <v>0.9971016653360666</v>
+        <v>0.9975614874640655</v>
       </c>
       <c r="F13">
-        <v>1.024742337742077</v>
+        <v>1.024838853978877</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048617756768215</v>
+        <v>1.048641767826361</v>
       </c>
       <c r="J13">
-        <v>1.016810613231727</v>
+        <v>1.01725583851872</v>
       </c>
       <c r="K13">
-        <v>1.032201018108224</v>
+        <v>1.032240100897053</v>
       </c>
       <c r="L13">
-        <v>1.012240382975817</v>
+        <v>1.012691363616801</v>
       </c>
       <c r="M13">
-        <v>1.039367888520374</v>
+        <v>1.039462675861341</v>
       </c>
       <c r="N13">
-        <v>1.009578726969887</v>
+        <v>1.012341700134466</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040818201211563</v>
+        <v>1.040893132756294</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033906294342527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033949322681933</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021107854587518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9873294613592352</v>
+        <v>0.9877325120391425</v>
       </c>
       <c r="D14">
-        <v>1.018006397237685</v>
+        <v>1.017987523082404</v>
       </c>
       <c r="E14">
-        <v>0.9978054939227604</v>
+        <v>0.9982036326263516</v>
       </c>
       <c r="F14">
-        <v>1.025471574059063</v>
+        <v>1.025523959976757</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048848954834252</v>
+        <v>1.048842561925619</v>
       </c>
       <c r="J14">
-        <v>1.017275439987215</v>
+        <v>1.017661087986625</v>
       </c>
       <c r="K14">
-        <v>1.032613079448435</v>
+        <v>1.032594545508073</v>
       </c>
       <c r="L14">
-        <v>1.012785937783033</v>
+        <v>1.013176518954448</v>
       </c>
       <c r="M14">
-        <v>1.039944966918551</v>
+        <v>1.039996426388086</v>
       </c>
       <c r="N14">
-        <v>1.009757090747923</v>
+        <v>1.012393074583926</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041447473780401</v>
+        <v>1.04148814817701</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034199062757908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034201487208578</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021189612350843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9877904649588098</v>
+        <v>0.9881605060745795</v>
       </c>
       <c r="D15">
-        <v>1.018315957528254</v>
+        <v>1.018265752473839</v>
       </c>
       <c r="E15">
-        <v>0.9982018207172644</v>
+        <v>0.9985674117036745</v>
       </c>
       <c r="F15">
-        <v>1.025818811412903</v>
+        <v>1.025847553331239</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048967425340144</v>
+        <v>1.048944782358335</v>
       </c>
       <c r="J15">
-        <v>1.017525923258837</v>
+        <v>1.017880127089377</v>
       </c>
       <c r="K15">
-        <v>1.032830478359014</v>
+        <v>1.032781171419186</v>
       </c>
       <c r="L15">
-        <v>1.013085611231732</v>
+        <v>1.01344431703584</v>
       </c>
       <c r="M15">
-        <v>1.040200394855374</v>
+        <v>1.040228632362437</v>
       </c>
       <c r="N15">
-        <v>1.009846270128679</v>
+        <v>1.012413013447767</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041686854884771</v>
+        <v>1.04170917368006</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034358650338103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034339884797589</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021229956529094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9903220025111873</v>
+        <v>0.990527797356469</v>
       </c>
       <c r="D16">
-        <v>1.019971424021241</v>
+        <v>1.019760324625353</v>
       </c>
       <c r="E16">
-        <v>1.000363916527199</v>
+        <v>1.000567423852807</v>
       </c>
       <c r="F16">
-        <v>1.027473299775235</v>
+        <v>1.027380790147992</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04956292831239</v>
+        <v>1.049456751425099</v>
       </c>
       <c r="J16">
-        <v>1.01884689880821</v>
+        <v>1.019044329755639</v>
       </c>
       <c r="K16">
-        <v>1.033953566519735</v>
+        <v>1.033746078495302</v>
       </c>
       <c r="L16">
-        <v>1.014689945021535</v>
+        <v>1.014889793194281</v>
       </c>
       <c r="M16">
-        <v>1.041328346402592</v>
+        <v>1.041237389489573</v>
       </c>
       <c r="N16">
-        <v>1.010283927229077</v>
+        <v>1.012512075935075</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042539719356357</v>
+        <v>1.042467825385534</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035155884995974</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035025575118102</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021426852206807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9918414828112909</v>
+        <v>0.9919626589076903</v>
       </c>
       <c r="D17">
-        <v>1.020947545387727</v>
+        <v>1.020649252248469</v>
       </c>
       <c r="E17">
-        <v>1.001656842141154</v>
+        <v>1.001776738187769</v>
       </c>
       <c r="F17">
-        <v>1.028356189669286</v>
+        <v>1.028198422947856</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I17">
-        <v>1.049895168097148</v>
+        <v>1.049743678298901</v>
       </c>
       <c r="J17">
-        <v>1.019616831746182</v>
+        <v>1.019733242983376</v>
       </c>
       <c r="K17">
-        <v>1.03459799347083</v>
+        <v>1.034304659608658</v>
       </c>
       <c r="L17">
-        <v>1.015635883144883</v>
+        <v>1.01575368630096</v>
       </c>
       <c r="M17">
-        <v>1.041884651484376</v>
+        <v>1.041729458912916</v>
       </c>
       <c r="N17">
-        <v>1.010526228249153</v>
+        <v>1.012590245650152</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04285058620835</v>
+        <v>1.042727907029642</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035614108919013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035423347828082</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021535362437342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9926211814518222</v>
+        <v>0.9927090140820553</v>
       </c>
       <c r="D18">
-        <v>1.021407788984682</v>
+        <v>1.021072299869364</v>
       </c>
       <c r="E18">
-        <v>1.002307031501091</v>
+        <v>1.002393963695406</v>
       </c>
       <c r="F18">
-        <v>1.028611482516543</v>
+        <v>1.028425844269142</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050020708394415</v>
+        <v>1.049849835164291</v>
       </c>
       <c r="J18">
-        <v>1.019965879481371</v>
+        <v>1.020050324267625</v>
       </c>
       <c r="K18">
-        <v>1.034866951693308</v>
+        <v>1.03453694804851</v>
       </c>
       <c r="L18">
-        <v>1.016086061047756</v>
+        <v>1.016171501761393</v>
       </c>
       <c r="M18">
-        <v>1.041953967394505</v>
+        <v>1.041771309600062</v>
       </c>
       <c r="N18">
-        <v>1.010614734821992</v>
+        <v>1.012613958493835</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042668084476471</v>
+        <v>1.042523664119205</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035792625305078</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035574802179671</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021569103304291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9927251365849314</v>
+        <v>0.9928218115665058</v>
       </c>
       <c r="D19">
-        <v>1.02139706231539</v>
+        <v>1.021068083845283</v>
       </c>
       <c r="E19">
-        <v>1.00236871481494</v>
+        <v>1.002464408241827</v>
       </c>
       <c r="F19">
-        <v>1.02828780848443</v>
+        <v>1.028106640331279</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049959019309643</v>
+        <v>1.04979143146451</v>
       </c>
       <c r="J19">
-        <v>1.019929572148851</v>
+        <v>1.020022541217329</v>
       </c>
       <c r="K19">
-        <v>1.03479378065371</v>
+        <v>1.034470152597988</v>
       </c>
       <c r="L19">
-        <v>1.016082361399717</v>
+        <v>1.016176422118302</v>
       </c>
       <c r="M19">
-        <v>1.041573466408026</v>
+        <v>1.041395193770456</v>
       </c>
       <c r="N19">
-        <v>1.010566335451233</v>
+        <v>1.012570211859414</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042042321653062</v>
+        <v>1.041901322558514</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035747290431851</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03553459861841</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021534340234334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9909277559113329</v>
+        <v>0.9911478245815259</v>
       </c>
       <c r="D20">
-        <v>1.020061364157972</v>
+        <v>1.01985786250117</v>
       </c>
       <c r="E20">
-        <v>1.000775251750837</v>
+        <v>1.000992975505929</v>
       </c>
       <c r="F20">
-        <v>1.026385414995326</v>
+        <v>1.026296870164028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049375646122622</v>
+        <v>1.049273051912823</v>
       </c>
       <c r="J20">
-        <v>1.018812933080351</v>
+        <v>1.019024299777411</v>
       </c>
       <c r="K20">
-        <v>1.033760398443752</v>
+        <v>1.033560296923591</v>
       </c>
       <c r="L20">
-        <v>1.014804482975297</v>
+        <v>1.015018387079701</v>
       </c>
       <c r="M20">
-        <v>1.03997965039735</v>
+        <v>1.039892561418317</v>
       </c>
       <c r="N20">
-        <v>1.010132620501503</v>
+        <v>1.012325825776732</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040254401982461</v>
+        <v>1.040185480272243</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035020572563859</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034895610414904</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021307395921208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9862507610614271</v>
+        <v>0.9867982679596582</v>
       </c>
       <c r="D21">
-        <v>1.016975900966652</v>
+        <v>1.017086795485893</v>
       </c>
       <c r="E21">
-        <v>0.9967683569988719</v>
+        <v>0.9973091258572324</v>
       </c>
       <c r="F21">
-        <v>1.023177745089517</v>
+        <v>1.02332737951383</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048245226073835</v>
+        <v>1.048305871249771</v>
       </c>
       <c r="J21">
-        <v>1.016334796167724</v>
+        <v>1.016858509125155</v>
       </c>
       <c r="K21">
-        <v>1.031642642237319</v>
+        <v>1.031751526348405</v>
       </c>
       <c r="L21">
-        <v>1.011811213590738</v>
+        <v>1.012341657634355</v>
       </c>
       <c r="M21">
-        <v>1.037732922045798</v>
+        <v>1.037879886402778</v>
       </c>
       <c r="N21">
-        <v>1.009290368939195</v>
+        <v>1.012162126641616</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03843546423828</v>
+        <v>1.038551776998105</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033526470493435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033620306700898</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020933088746969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9832643713748992</v>
+        <v>0.9840196398353787</v>
       </c>
       <c r="D22">
-        <v>1.015013819583794</v>
+        <v>1.015324111435098</v>
       </c>
       <c r="E22">
-        <v>0.9942189684967788</v>
+        <v>0.9949641138827683</v>
       </c>
       <c r="F22">
-        <v>1.02117109077238</v>
+        <v>1.021471969750311</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047516521738989</v>
+        <v>1.047680522975702</v>
       </c>
       <c r="J22">
-        <v>1.014757096583397</v>
+        <v>1.015477611164276</v>
       </c>
       <c r="K22">
-        <v>1.03029360405817</v>
+        <v>1.030597986884472</v>
       </c>
       <c r="L22">
-        <v>1.009905825296131</v>
+        <v>1.010635997151696</v>
       </c>
       <c r="M22">
-        <v>1.036334496218638</v>
+        <v>1.036629735203925</v>
       </c>
       <c r="N22">
-        <v>1.0087555135574</v>
+        <v>1.012050654765942</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037328699918549</v>
+        <v>1.037562362775916</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032559109909378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032789878017109</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020692975321429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9848451108072972</v>
+        <v>0.9854775018168593</v>
       </c>
       <c r="D23">
-        <v>1.016047624461831</v>
+        <v>1.016243675902764</v>
       </c>
       <c r="E23">
-        <v>0.9955666020880568</v>
+        <v>0.9961908877331626</v>
       </c>
       <c r="F23">
-        <v>1.02223117221393</v>
+        <v>1.022444685565959</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047900383021684</v>
+        <v>1.048005141595256</v>
       </c>
       <c r="J23">
-        <v>1.015588810948709</v>
+        <v>1.016192964110003</v>
       </c>
       <c r="K23">
-        <v>1.031002130496898</v>
+        <v>1.031194543762816</v>
       </c>
       <c r="L23">
-        <v>1.010911538911259</v>
+        <v>1.011523612537509</v>
       </c>
       <c r="M23">
-        <v>1.037071803608277</v>
+        <v>1.037281416977362</v>
       </c>
       <c r="N23">
-        <v>1.009036120771625</v>
+        <v>1.012064425090933</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037912231625909</v>
+        <v>1.038078127132509</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033050415945272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033201073267943</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020815415490556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9909588536737448</v>
+        <v>0.9911794523518959</v>
       </c>
       <c r="D24">
-        <v>1.020061770198223</v>
+        <v>1.019858205018112</v>
       </c>
       <c r="E24">
-        <v>1.00079586649575</v>
+        <v>1.001014120058642</v>
       </c>
       <c r="F24">
-        <v>1.0263486999494</v>
+        <v>1.026260142309491</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049364640614641</v>
+        <v>1.049262003631828</v>
       </c>
       <c r="J24">
-        <v>1.018809432652475</v>
+        <v>1.019021321462394</v>
       </c>
       <c r="K24">
-        <v>1.033745505982119</v>
+        <v>1.03354533763669</v>
       </c>
       <c r="L24">
-        <v>1.014809020226887</v>
+        <v>1.015023449987086</v>
       </c>
       <c r="M24">
-        <v>1.039928380698233</v>
+        <v>1.039841277391883</v>
       </c>
       <c r="N24">
-        <v>1.01012497712763</v>
+        <v>1.012316534489307</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040173025450337</v>
+        <v>1.040104088988878</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034982606427992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034854927517201</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02129922914916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9978148617774724</v>
+        <v>0.9977488082061167</v>
       </c>
       <c r="D25">
-        <v>1.024578616971729</v>
+        <v>1.024041347930874</v>
       </c>
       <c r="E25">
-        <v>1.00668972003719</v>
+        <v>1.006624216449558</v>
       </c>
       <c r="F25">
-        <v>1.030994960989315</v>
+        <v>1.030664668610182</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050953007977377</v>
+        <v>1.050677159589236</v>
       </c>
       <c r="J25">
-        <v>1.022415988984183</v>
+        <v>1.022352172174751</v>
       </c>
       <c r="K25">
-        <v>1.036806997494016</v>
+        <v>1.036277574020453</v>
       </c>
       <c r="L25">
-        <v>1.019185066817445</v>
+        <v>1.01912056300966</v>
       </c>
       <c r="M25">
-        <v>1.043130446048345</v>
+        <v>1.04280489985963</v>
       </c>
       <c r="N25">
-        <v>1.011344194675229</v>
+        <v>1.01316222891235</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.0427072421864</v>
+        <v>1.042449594945387</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037144375896758</v>
+        <v>1.03678358407613</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02186226303239</v>
       </c>
     </row>
   </sheetData>
